--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="algo_program" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -15,11 +15,229 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+  <si>
+    <t xml:space="preserve">Sr. No. </t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>treeTraversalRecur.c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Recursive implementation of tree traversal algorithms</t>
+  </si>
+  <si>
+    <t>treeTraversalIter.c</t>
+  </si>
+  <si>
+    <t>Iterative Implementation of tree traversals</t>
+  </si>
+  <si>
+    <t>levelTree.c</t>
+  </si>
+  <si>
+    <t>Given a tree find it's level</t>
+  </si>
+  <si>
+    <t>trieArray.c</t>
+  </si>
+  <si>
+    <t>Array implementation of TRIE DS</t>
+  </si>
+  <si>
+    <t>Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
+  </si>
+  <si>
+    <t>maxSubstrLRabin.c</t>
+  </si>
+  <si>
+    <t>isTreeLevel.c</t>
+  </si>
+  <si>
+    <t>Given levels of a tree - does tree exists?</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>heightTree.c</t>
+  </si>
+  <si>
+    <t>Find height of the tree</t>
+  </si>
+  <si>
+    <t>isHeightPossible.c</t>
+  </si>
+  <si>
+    <t>Given height array - does a tree exists for those heights?</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>longestSubStrRabin.c</t>
+  </si>
+  <si>
+    <t>Find the max length of the substring which repeats at least k times</t>
+  </si>
+  <si>
+    <t>compressedTrie.c</t>
+  </si>
+  <si>
+    <t>Implement compressed trie</t>
+  </si>
+  <si>
+    <t>findTime.c</t>
+  </si>
+  <si>
+    <t>Find the time taken for a given input n - Checking the max computing power of the CPU</t>
+  </si>
+  <si>
+    <t>findMaxArraySize.c</t>
+  </si>
+  <si>
+    <t>Find max array size computer can support</t>
+  </si>
+  <si>
+    <t>cntInvMerge.c</t>
+  </si>
+  <si>
+    <t>Count the number of split inversions - coursera</t>
+  </si>
+  <si>
+    <t>quickFirstPivot.c</t>
+  </si>
+  <si>
+    <t>quickLastPivot.c</t>
+  </si>
+  <si>
+    <t>quickMedPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Median of first, middle and last as pivot - coursera</t>
+  </si>
+  <si>
+    <t>Quick Sort - Last Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>Quick Sort - First Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>rabin_karp.c</t>
+  </si>
+  <si>
+    <t>turn_pike.c</t>
+  </si>
+  <si>
+    <t>Implementation of Turn Piker Problem</t>
+  </si>
+  <si>
+    <t>Implementaion of Rabin Karp - finding a substring in a given string</t>
+  </si>
+  <si>
+    <t>fiboModA1.c</t>
+  </si>
+  <si>
+    <t>fiboModA2.c</t>
+  </si>
+  <si>
+    <t>fiboModA3.c</t>
+  </si>
+  <si>
+    <t>fiboModA4.c</t>
+  </si>
+  <si>
+    <t>fiboModA5.c</t>
+  </si>
+  <si>
+    <t>fiboModA6.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Recursive Implementation</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using Memoization</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using three variables</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using piano period</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input binary - Using matrix multiplication</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
+  </si>
+  <si>
+    <t>Given a value of x find the rank of the input number</t>
+  </si>
+  <si>
+    <t>findRank.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r'</t>
+  </si>
+  <si>
+    <t>findElRankSort.c</t>
+  </si>
+  <si>
+    <t>Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
+  </si>
+  <si>
+    <t>findElRankGNH.c</t>
+  </si>
+  <si>
+    <t>findElRankLV.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using Las Vegas</t>
+  </si>
+  <si>
+    <t>findElRankDeter.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,15 +264,146 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F179" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="B2:F179">
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Sr. No. " dataDxfId="6"/>
+    <tableColumn id="2" name="File Name" dataDxfId="5"/>
+    <tableColumn id="3" name="Language" dataDxfId="4"/>
+    <tableColumn id="4" name="Description" dataDxfId="3"/>
+    <tableColumn id="5" name="Status" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -342,13 +691,1279 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="15" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="1">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="1">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="1">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="1">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="1">
+        <v>11</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="1">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="1">
+        <v>13</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="1">
+        <v>14</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="1">
+        <v>15</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="1">
+        <v>16</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="1">
+        <v>17</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="1">
+        <v>18</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="1">
+        <v>19</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="1">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="1">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="1">
+        <v>22</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="1">
+        <v>23</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="1">
+        <v>27</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="1">
+        <v>28</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6">
+      <c r="B31" s="1">
+        <v>29</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6">
+      <c r="B32" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2">
+      <c r="B57" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2">
+      <c r="B59" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2">
+      <c r="B60" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2">
+      <c r="B64" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2">
+      <c r="B65" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2">
+      <c r="B66" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2">
+      <c r="B67" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2">
+      <c r="B68" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2">
+      <c r="B69" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2">
+      <c r="B71" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2">
+      <c r="B72" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2">
+      <c r="B73" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2">
+      <c r="B74" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2">
+      <c r="B75" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2">
+      <c r="B76" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2">
+      <c r="B77" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2">
+      <c r="B78" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2">
+      <c r="B79" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2">
+      <c r="B80" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2">
+      <c r="B84" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2">
+      <c r="B85" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2">
+      <c r="B86" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2">
+      <c r="B87" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2">
+      <c r="B90" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2">
+      <c r="B92" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2">
+      <c r="B93" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2">
+      <c r="B94" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2">
+      <c r="B95" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2">
+      <c r="B96" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2">
+      <c r="B97" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2">
+      <c r="B98" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2">
+      <c r="B100" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2">
+      <c r="B101" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2">
+      <c r="B102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2">
+      <c r="B103" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2">
+      <c r="B104" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2">
+      <c r="B105" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2">
+      <c r="B106" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2">
+      <c r="B107" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2">
+      <c r="B108" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2">
+      <c r="B109" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2">
+      <c r="B110" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2">
+      <c r="B111" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2">
+      <c r="B112" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="2:2">
+      <c r="B113" s="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="2:2">
+      <c r="B114" s="1">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="2:2">
+      <c r="B115" s="1">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="2:2">
+      <c r="B116" s="1">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="2:2">
+      <c r="B117" s="1">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="2:2">
+      <c r="B118" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="2:2">
+      <c r="B119" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="2:2">
+      <c r="B120" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="2:2">
+      <c r="B121" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="2:2">
+      <c r="B122" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="2:2">
+      <c r="B123" s="1">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="2:2">
+      <c r="B124" s="1">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="2:2">
+      <c r="B125" s="1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="2:2">
+      <c r="B126" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="2:2">
+      <c r="B128" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2">
+      <c r="B129" s="1">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2">
+      <c r="B130" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2">
+      <c r="B131" s="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2">
+      <c r="B132" s="1">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2">
+      <c r="B133" s="1">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2">
+      <c r="B134" s="1">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2">
+      <c r="B135" s="1">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2">
+      <c r="B136" s="1">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2">
+      <c r="B137" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2">
+      <c r="B138" s="1">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2">
+      <c r="B139" s="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2">
+      <c r="B140" s="1">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2">
+      <c r="B141" s="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2">
+      <c r="B142" s="1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2">
+      <c r="B143" s="1">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2">
+      <c r="B144" s="1">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2">
+      <c r="B145" s="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2">
+      <c r="B146" s="1">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2">
+      <c r="B147" s="1">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="2:2">
+      <c r="B148" s="1">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="2:2">
+      <c r="B149" s="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="2:2">
+      <c r="B150" s="1">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="2:2">
+      <c r="B151" s="1">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="2:2">
+      <c r="B152" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="2:2">
+      <c r="B153" s="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="2:2">
+      <c r="B154" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="2:2">
+      <c r="B155" s="1">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="2:2">
+      <c r="B156" s="1">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="2:2">
+      <c r="B157" s="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="2:2">
+      <c r="B158" s="1">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="2:2">
+      <c r="B159" s="1">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="2:2">
+      <c r="B160" s="1">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2">
+      <c r="B161" s="1">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2">
+      <c r="B162" s="1">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2">
+      <c r="B163" s="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2">
+      <c r="B164" s="1">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2">
+      <c r="B165" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2">
+      <c r="B166" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2">
+      <c r="B167" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="2:2">
+      <c r="B168" s="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="2:2">
+      <c r="B169" s="1">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="2:2">
+      <c r="B170" s="1">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="2:2">
+      <c r="B171" s="1">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="2:2">
+      <c r="B172" s="1">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="2:2">
+      <c r="B173" s="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="2:2">
+      <c r="B174" s="1">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="2:2">
+      <c r="B175" s="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="2:2">
+      <c r="B176" s="1">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="2:2">
+      <c r="B177" s="1">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="2:2">
+      <c r="B178" s="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="2:2">
+      <c r="B179" s="1">
+        <v>177</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -299,38 +299,6 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -385,22 +353,54 @@
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F179" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F179" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="B2:F179">
     <filterColumn colId="4"/>
   </autoFilter>
   <tableColumns count="5">
-    <tableColumn id="1" name="Sr. No. " dataDxfId="6"/>
-    <tableColumn id="2" name="File Name" dataDxfId="5"/>
-    <tableColumn id="3" name="Language" dataDxfId="4"/>
-    <tableColumn id="4" name="Description" dataDxfId="3"/>
-    <tableColumn id="5" name="Status" dataDxfId="2"/>
+    <tableColumn id="1" name="Sr. No. " dataDxfId="4"/>
+    <tableColumn id="2" name="File Name" dataDxfId="3"/>
+    <tableColumn id="3" name="Language" dataDxfId="2"/>
+    <tableColumn id="4" name="Description" dataDxfId="1"/>
+    <tableColumn id="5" name="Status" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -693,8 +693,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1215,7 +1215,7 @@
         <v>65</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="2:6">

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="algo_program" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
+    <sheet name="java_programs" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="69">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -214,13 +214,22 @@
   </si>
   <si>
     <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+  <si>
+    <t>KargerMinCut</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -243,16 +252,42 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor theme="8" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -260,11 +295,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -277,6 +352,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,8 +795,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B2:F179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1969,12 +2071,77 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" ht="16.5" thickBot="1">
+      <c r="B2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" ht="16.5" thickTop="1">
+      <c r="B3" s="8">
+        <v>1</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" ht="15.75">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="2:6" ht="15.75">
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="2:6" ht="15.75">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -238,6 +238,24 @@
   </si>
   <si>
     <t xml:space="preserve">Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxDiffWInLDist.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxSumSubSeq.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum subsequence using the prefix sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxProSubSeq.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subsequence in an array</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut</t>
@@ -552,8 +570,8 @@
   </sheetPr>
   <dimension ref="B2:F179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A35" activeCellId="0" sqref="A35"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1128,19 +1146,52 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="n">
         <v>33</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="n">
         <v>34</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="n">
         <v>35</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1911,13 +1962,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t xml:space="preserve">Maximum product subsequence in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findFirstMinRHS.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut</t>
@@ -570,8 +576,8 @@
   </sheetPr>
   <dimension ref="B2:F179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F37" activeCellId="0" sqref="F37"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1193,10 +1199,25 @@
       <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="n">
         <v>36</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1962,13 +1983,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
+  </si>
+  <si>
+    <t xml:space="preserve">findMaxAreaRect.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a number array find the maximum area of the rectangle ()</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut</t>
@@ -577,7 +583,7 @@
   <dimension ref="B2:F179"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C39" activeCellId="0" sqref="C39"/>
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1220,9 +1226,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="n">
         <v>37</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1983,13 +1998,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>8</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="java_programs" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
+    <sheet name="java_programs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,292 +21,283 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
   <si>
-    <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalRecur.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursive implementation of tree traversal algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalIter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative Implementation of tree traversals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levelTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a tree find it's level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trieArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array implementation of TRIE DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSubstrLRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isTreeLevel.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given levels of a tree - does tree exists?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heightTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find height of the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isHeightPossible.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given height array - does a tree exists for those heights?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestSubStrRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max length of the substring which repeats at least k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressedTrie.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement compressed trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findTime.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the time taken for a given input n - Checking the max computing power of the CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findMaxArraySize.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max array size computer can support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cntInvMerge.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of split inversions - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickFirstPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - First Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickLastPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Last Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickMedPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Median of first, middle and last as pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabin_karp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementaion of Rabin Karp - finding a substring in a given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn_pike.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation of Turn Piker Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Recursive Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA2.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using Memoization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA3.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using three variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA4.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using piano period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA5.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input binary - Using matrix multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA6.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRank.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a value of x find the rank of the input number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankSort.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankGNH.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankLV.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumExistTwoNArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there two numbers in an array such that ai + aj = (a given sum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffOrdInds.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffAtlstLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffWInLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSumSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum subsequence using the prefix sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxProSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subsequence in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findFirstMinRHS.c</t>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>treeTraversalRecur.c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Recursive implementation of tree traversal algorithms</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>treeTraversalIter.c</t>
+  </si>
+  <si>
+    <t>Iterative Implementation of tree traversals</t>
+  </si>
+  <si>
+    <t>levelTree.c</t>
+  </si>
+  <si>
+    <t>Given a tree find it's level</t>
+  </si>
+  <si>
+    <t>trieArray.c</t>
+  </si>
+  <si>
+    <t>Array implementation of TRIE DS</t>
+  </si>
+  <si>
+    <t>maxSubstrLRabin.c</t>
+  </si>
+  <si>
+    <t>Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
+  </si>
+  <si>
+    <t>isTreeLevel.c</t>
+  </si>
+  <si>
+    <t>Given levels of a tree - does tree exists?</t>
+  </si>
+  <si>
+    <t>heightTree.c</t>
+  </si>
+  <si>
+    <t>Find height of the tree</t>
+  </si>
+  <si>
+    <t>isHeightPossible.c</t>
+  </si>
+  <si>
+    <t>Given height array - does a tree exists for those heights?</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>longestSubStrRabin.c</t>
+  </si>
+  <si>
+    <t>Find the max length of the substring which repeats at least k times</t>
+  </si>
+  <si>
+    <t>compressedTrie.c</t>
+  </si>
+  <si>
+    <t>Implement compressed trie</t>
+  </si>
+  <si>
+    <t>findTime.c</t>
+  </si>
+  <si>
+    <t>Find the time taken for a given input n - Checking the max computing power of the CPU</t>
+  </si>
+  <si>
+    <t>findMaxArraySize.c</t>
+  </si>
+  <si>
+    <t>Find max array size computer can support</t>
+  </si>
+  <si>
+    <t>cntInvMerge.c</t>
+  </si>
+  <si>
+    <t>Count the number of split inversions - coursera</t>
+  </si>
+  <si>
+    <t>quickFirstPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - First Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickLastPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Last Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickMedPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Median of first, middle and last as pivot - coursera</t>
+  </si>
+  <si>
+    <t>rabin_karp.c</t>
+  </si>
+  <si>
+    <t>Implementaion of Rabin Karp - finding a substring in a given string</t>
+  </si>
+  <si>
+    <t>turn_pike.c</t>
+  </si>
+  <si>
+    <t>Implementation of Turn Piker Problem</t>
+  </si>
+  <si>
+    <t>fiboModA1.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Recursive Implementation</t>
+  </si>
+  <si>
+    <t>fiboModA2.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using Memoization</t>
+  </si>
+  <si>
+    <t>fiboModA3.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using three variables</t>
+  </si>
+  <si>
+    <t>fiboModA4.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using piano period</t>
+  </si>
+  <si>
+    <t>fiboModA5.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input binary - Using matrix multiplication</t>
+  </si>
+  <si>
+    <t>fiboModA6.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
+  </si>
+  <si>
+    <t>findRank.c</t>
+  </si>
+  <si>
+    <t>Given a value of x find the rank of the input number</t>
+  </si>
+  <si>
+    <t>findElRankSort.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r'</t>
+  </si>
+  <si>
+    <t>findElRankGNH.c</t>
+  </si>
+  <si>
+    <t>Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
+  </si>
+  <si>
+    <t>findElRankLV.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using Las Vegas</t>
+  </si>
+  <si>
+    <t>findElRankDeter.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+  <si>
+    <t>sumExistTwoNArray.c</t>
+  </si>
+  <si>
+    <t>Are there two numbers in an array such that ai + aj = (a given sum)</t>
+  </si>
+  <si>
+    <t>maxDiffOrdInds.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
+  </si>
+  <si>
+    <t>maxDiffAtlstLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
+  </si>
+  <si>
+    <t>maxDiffWInLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
+  </si>
+  <si>
+    <t>maxSumSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum sum subsequence using the prefix sum</t>
+  </si>
+  <si>
+    <t>maxProSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum product subsequence in an array</t>
+  </si>
+  <si>
+    <t>findFirstMinRHS.c</t>
   </si>
   <si>
     <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
   </si>
   <si>
-    <t xml:space="preserve">findMaxAreaRect.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a number array find the maximum area of the rectangle ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KargerMinCut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+    <t>findMaxAreaRect.c</t>
+  </si>
+  <si>
+    <t>Given a number array find the maximum area of the rectangle ()</t>
+  </si>
+  <si>
+    <t>KargerMinCut</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Coursera</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -317,7 +307,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -325,7 +315,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -360,14 +350,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -378,7 +368,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -387,7 +377,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -398,7 +388,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -408,97 +398,78 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -557,47 +528,340 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:F179" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:F179"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G179" totalsRowShown="0">
+  <autoFilter ref="B2:G179">
+    <filterColumn colId="4"/>
+  </autoFilter>
+  <tableColumns count="6">
     <tableColumn id="1" name="Sr. No. "/>
     <tableColumn id="2" name="File Name"/>
     <tableColumn id="3" name="Language"/>
     <tableColumn id="4" name="Description"/>
+    <tableColumn id="6" name="Source" dataDxfId="0"/>
     <tableColumn id="5" name="Status"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:F179"/>
+  <dimension ref="A2:AML179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="94.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="9.14"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="1026" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:7">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -610,12 +874,15 @@
       <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="n">
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -627,12 +894,15 @@
       <c r="E3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="n">
+      <c r="F3" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -644,12 +914,15 @@
       <c r="E4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="n">
+      <c r="F4" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -661,12 +934,15 @@
       <c r="E5" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
+      <c r="F5" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -678,12 +954,15 @@
       <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="n">
+      <c r="F6" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -695,12 +974,15 @@
       <c r="E7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="n">
+      <c r="F7" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -712,12 +994,15 @@
       <c r="E8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+      <c r="F8" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -729,12 +1014,15 @@
       <c r="E9" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
+      <c r="F9" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -746,12 +1034,15 @@
       <c r="E10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="F10" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -763,12 +1054,15 @@
       <c r="E11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="n">
+      <c r="F11" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -780,12 +1074,15 @@
       <c r="E12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="n">
+    <row r="13" spans="2:7">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -797,12 +1094,15 @@
       <c r="E13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="n">
+      <c r="F13" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -814,12 +1114,15 @@
       <c r="E14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="n">
+      <c r="F14" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -831,12 +1134,15 @@
       <c r="E15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="n">
+      <c r="F15" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -848,12 +1154,15 @@
       <c r="E16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="n">
+      <c r="F16" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -865,12 +1174,15 @@
       <c r="E17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="n">
+      <c r="F17" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -882,12 +1194,15 @@
       <c r="E18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="n">
+      <c r="F18" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -899,12 +1214,15 @@
       <c r="E19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="n">
+      <c r="F19" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -916,12 +1234,15 @@
       <c r="E20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="n">
+      <c r="F20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -933,12 +1254,15 @@
       <c r="E21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="n">
+      <c r="F21" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -950,12 +1274,15 @@
       <c r="E22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F22" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="n">
+      <c r="F22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -967,12 +1294,15 @@
       <c r="E23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="n">
+      <c r="F23" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -984,12 +1314,15 @@
       <c r="E24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F24" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="n">
+      <c r="F24" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1001,12 +1334,15 @@
       <c r="E25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="n">
+      <c r="F25" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1018,12 +1354,15 @@
       <c r="E26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="n">
+      <c r="F26" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1035,12 +1374,15 @@
       <c r="E27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F27" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="n">
+      <c r="F27" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1052,12 +1394,15 @@
       <c r="E28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F28" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="n">
+      <c r="F28" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1069,12 +1414,15 @@
       <c r="E29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="n">
+      <c r="F29" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1086,12 +1434,15 @@
       <c r="E30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="n">
+      <c r="F30" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1103,12 +1454,15 @@
       <c r="E31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="n">
+      <c r="F31" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1120,12 +1474,15 @@
       <c r="E32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="n">
+      <c r="F32" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1137,12 +1494,15 @@
       <c r="E33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="n">
+      <c r="F33" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1154,12 +1514,15 @@
       <c r="E34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F34" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="n">
+      <c r="F34" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1171,12 +1534,15 @@
       <c r="E35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="n">
+    <row r="36" spans="2:7">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1188,12 +1554,15 @@
       <c r="E36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="F36" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="n">
+      <c r="F36" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1205,12 +1574,15 @@
       <c r="E37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="n">
+      <c r="F37" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1222,12 +1594,15 @@
       <c r="E38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="n">
+      <c r="F38" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1240,715 +1615,710 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="n">
+    <row r="40" spans="2:7">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="n">
+    <row r="41" spans="2:7">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="n">
+    <row r="42" spans="2:7">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="n">
+    <row r="43" spans="2:7">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="n">
+    <row r="44" spans="2:7">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="n">
+    <row r="45" spans="2:7">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="n">
+    <row r="46" spans="2:7">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="n">
+    <row r="47" spans="2:7">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="n">
+    <row r="48" spans="2:7">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="n">
+    <row r="49" spans="2:2">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="n">
+    <row r="50" spans="2:2">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="n">
+    <row r="51" spans="2:2">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="n">
+    <row r="52" spans="2:2">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="n">
+    <row r="53" spans="2:2">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="n">
+    <row r="54" spans="2:2">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="n">
+    <row r="55" spans="2:2">
+      <c r="B55" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="n">
+    <row r="56" spans="2:2">
+      <c r="B56" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="n">
+    <row r="57" spans="2:2">
+      <c r="B57" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="n">
+    <row r="58" spans="2:2">
+      <c r="B58" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="n">
+    <row r="59" spans="2:2">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="n">
+    <row r="60" spans="2:2">
+      <c r="B60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="n">
+    <row r="61" spans="2:2">
+      <c r="B61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="n">
+    <row r="62" spans="2:2">
+      <c r="B62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="n">
+    <row r="63" spans="2:2">
+      <c r="B63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="n">
+    <row r="64" spans="2:2">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="n">
+    <row r="65" spans="2:2">
+      <c r="B65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="n">
+    <row r="66" spans="2:2">
+      <c r="B66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="n">
+    <row r="67" spans="2:2">
+      <c r="B67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="n">
+    <row r="68" spans="2:2">
+      <c r="B68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="n">
+    <row r="69" spans="2:2">
+      <c r="B69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="n">
+    <row r="70" spans="2:2">
+      <c r="B70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
+    <row r="71" spans="2:2">
+      <c r="B71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="n">
+    <row r="72" spans="2:2">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="n">
+    <row r="73" spans="2:2">
+      <c r="B73" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="n">
+    <row r="74" spans="2:2">
+      <c r="B74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="n">
+    <row r="75" spans="2:2">
+      <c r="B75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="n">
+    <row r="76" spans="2:2">
+      <c r="B76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="n">
+    <row r="77" spans="2:2">
+      <c r="B77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="n">
+    <row r="78" spans="2:2">
+      <c r="B78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="n">
+    <row r="79" spans="2:2">
+      <c r="B79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="n">
+    <row r="80" spans="2:2">
+      <c r="B80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="n">
+    <row r="81" spans="2:2">
+      <c r="B81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="n">
+    <row r="82" spans="2:2">
+      <c r="B82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="n">
+    <row r="83" spans="2:2">
+      <c r="B83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="n">
+    <row r="84" spans="2:2">
+      <c r="B84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="n">
+    <row r="85" spans="2:2">
+      <c r="B85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="n">
+    <row r="86" spans="2:2">
+      <c r="B86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="n">
+    <row r="87" spans="2:2">
+      <c r="B87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="n">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="n">
+    <row r="88" spans="2:2">
+      <c r="B88" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2">
+      <c r="B89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="n">
+    <row r="90" spans="2:2">
+      <c r="B90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="n">
+    <row r="91" spans="2:2">
+      <c r="B91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="n">
+    <row r="92" spans="2:2">
+      <c r="B92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="n">
+    <row r="93" spans="2:2">
+      <c r="B93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="n">
+    <row r="94" spans="2:2">
+      <c r="B94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="n">
+    <row r="95" spans="2:2">
+      <c r="B95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="n">
+    <row r="96" spans="2:2">
+      <c r="B96" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="n">
+    <row r="97" spans="2:2">
+      <c r="B97" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="n">
+    <row r="98" spans="2:2">
+      <c r="B98" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="n">
+    <row r="99" spans="2:2">
+      <c r="B99" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="n">
+    <row r="100" spans="2:2">
+      <c r="B100" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="n">
+    <row r="101" spans="2:2">
+      <c r="B101" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="n">
+    <row r="102" spans="2:2">
+      <c r="B102" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="n">
+    <row r="103" spans="2:2">
+      <c r="B103" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="n">
+    <row r="104" spans="2:2">
+      <c r="B104" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="n">
+    <row r="105" spans="2:2">
+      <c r="B105" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="n">
+    <row r="106" spans="2:2">
+      <c r="B106" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="n">
+    <row r="107" spans="2:2">
+      <c r="B107" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="n">
+    <row r="108" spans="2:2">
+      <c r="B108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="n">
+    <row r="109" spans="2:2">
+      <c r="B109" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="n">
+    <row r="110" spans="2:2">
+      <c r="B110" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="n">
+    <row r="111" spans="2:2">
+      <c r="B111" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="n">
+    <row r="112" spans="2:2">
+      <c r="B112" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="n">
+    <row r="113" spans="2:2">
+      <c r="B113" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="n">
+    <row r="114" spans="2:2">
+      <c r="B114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="n">
+    <row r="115" spans="2:2">
+      <c r="B115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1" t="n">
+    <row r="116" spans="2:2">
+      <c r="B116" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="n">
+    <row r="117" spans="2:2">
+      <c r="B117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="1" t="n">
+    <row r="118" spans="2:2">
+      <c r="B118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="n">
+    <row r="119" spans="2:2">
+      <c r="B119" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="n">
+    <row r="120" spans="2:2">
+      <c r="B120" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="n">
+    <row r="121" spans="2:2">
+      <c r="B121" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1" t="n">
+    <row r="122" spans="2:2">
+      <c r="B122" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="n">
+    <row r="123" spans="2:2">
+      <c r="B123" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="n">
+    <row r="124" spans="2:2">
+      <c r="B124" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="n">
+    <row r="125" spans="2:2">
+      <c r="B125" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="n">
+    <row r="126" spans="2:2">
+      <c r="B126" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="n">
+    <row r="127" spans="2:2">
+      <c r="B127" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1" t="n">
+    <row r="128" spans="2:2">
+      <c r="B128" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="n">
+    <row r="129" spans="2:2">
+      <c r="B129" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1" t="n">
+    <row r="130" spans="2:2">
+      <c r="B130" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="n">
+    <row r="131" spans="2:2">
+      <c r="B131" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="n">
+    <row r="132" spans="2:2">
+      <c r="B132" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="n">
+    <row r="133" spans="2:2">
+      <c r="B133" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="1" t="n">
+    <row r="134" spans="2:2">
+      <c r="B134" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="1" t="n">
+    <row r="135" spans="2:2">
+      <c r="B135" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="1" t="n">
+    <row r="136" spans="2:2">
+      <c r="B136" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="1" t="n">
+    <row r="137" spans="2:2">
+      <c r="B137" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="1" t="n">
+    <row r="138" spans="2:2">
+      <c r="B138" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="n">
+    <row r="139" spans="2:2">
+      <c r="B139" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="1" t="n">
+    <row r="140" spans="2:2">
+      <c r="B140" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="1" t="n">
+    <row r="141" spans="2:2">
+      <c r="B141" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="1" t="n">
+    <row r="142" spans="2:2">
+      <c r="B142" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="1" t="n">
+    <row r="143" spans="2:2">
+      <c r="B143" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="1" t="n">
+    <row r="144" spans="2:2">
+      <c r="B144" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="1" t="n">
+    <row r="145" spans="2:2">
+      <c r="B145" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="n">
+    <row r="146" spans="2:2">
+      <c r="B146" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="1" t="n">
+    <row r="147" spans="2:2">
+      <c r="B147" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="1" t="n">
+    <row r="148" spans="2:2">
+      <c r="B148" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="1" t="n">
+    <row r="149" spans="2:2">
+      <c r="B149" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="1" t="n">
+    <row r="150" spans="2:2">
+      <c r="B150" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="n">
+    <row r="151" spans="2:2">
+      <c r="B151" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="1" t="n">
+    <row r="152" spans="2:2">
+      <c r="B152" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1" t="n">
+    <row r="153" spans="2:2">
+      <c r="B153" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="1" t="n">
+    <row r="154" spans="2:2">
+      <c r="B154" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1" t="n">
+    <row r="155" spans="2:2">
+      <c r="B155" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="1" t="n">
+    <row r="156" spans="2:2">
+      <c r="B156" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1" t="n">
+    <row r="157" spans="2:2">
+      <c r="B157" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="1" t="n">
+    <row r="158" spans="2:2">
+      <c r="B158" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1" t="n">
+    <row r="159" spans="2:2">
+      <c r="B159" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="1" t="n">
+    <row r="160" spans="2:2">
+      <c r="B160" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="1" t="n">
+    <row r="161" spans="2:2">
+      <c r="B161" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="1" t="n">
+    <row r="162" spans="2:2">
+      <c r="B162" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="1" t="n">
+    <row r="163" spans="2:2">
+      <c r="B163" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="1" t="n">
+    <row r="164" spans="2:2">
+      <c r="B164" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="n">
+    <row r="165" spans="2:2">
+      <c r="B165" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="1" t="n">
+    <row r="166" spans="2:2">
+      <c r="B166" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="1" t="n">
+    <row r="167" spans="2:2">
+      <c r="B167" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="1" t="n">
+    <row r="168" spans="2:2">
+      <c r="B168" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="1" t="n">
+    <row r="169" spans="2:2">
+      <c r="B169" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="1" t="n">
+    <row r="170" spans="2:2">
+      <c r="B170" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="1" t="n">
+    <row r="171" spans="2:2">
+      <c r="B171" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="1" t="n">
+    <row r="172" spans="2:2">
+      <c r="B172" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="1" t="n">
+    <row r="173" spans="2:2">
+      <c r="B173" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="1" t="n">
+    <row r="174" spans="2:2">
+      <c r="B174" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="1" t="n">
+    <row r="175" spans="2:2">
+      <c r="B175" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="1" t="n">
+    <row r="176" spans="2:2">
+      <c r="B176" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="1" t="n">
+    <row r="177" spans="2:2">
+      <c r="B177" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="1" t="n">
+    <row r="178" spans="2:2">
+      <c r="B178" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="1" t="n">
+    <row r="179" spans="2:2">
+      <c r="B179" s="1">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
@@ -1956,27 +2326,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B2:F6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="94.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.53"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="94.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15" customWidth="1"/>
+    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:6" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1993,8 +2360,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="8" t="n">
+    <row r="3" spans="2:6" ht="15.75">
+      <c r="B3" s="8">
         <v>1</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -2010,21 +2377,21 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:6" ht="15.75">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:6" ht="15.75">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:6" ht="15.75">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -2032,38 +2399,23 @@
       <c r="F6" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="88">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -401,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -444,6 +444,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -845,7 +857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AML179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -2326,10 +2338,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2338,12 +2350,13 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="94.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="1025" width="8.5703125" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" ht="15.75">
+    <row r="2" spans="2:7" ht="15.75">
       <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
@@ -2356,11 +2369,14 @@
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75">
+    <row r="3" spans="2:7" ht="15.75">
       <c r="B3" s="8">
         <v>1</v>
       </c>
@@ -2373,30 +2389,36 @@
       <c r="E3" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="2:6" ht="15.75">
+      <c r="F3" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15.75">
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="2:6" ht="15.75">
+      <c r="F4" s="17"/>
+      <c r="G4" s="13"/>
+    </row>
+    <row r="5" spans="2:7" ht="15.75">
       <c r="B5" s="8"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="9"/>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="2:6" ht="15.75">
+      <c r="F5" s="16"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
       <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -283,6 +283,24 @@
   </si>
   <si>
     <t xml:space="preserve">Testing program 33 with a large number of inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing37.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 37 with a large number of inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generateRandom.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a random number file with ~ 10^6 numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMinN2LargeRand.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut</t>
@@ -618,8 +636,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E25" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1391,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1410,20 +1428,68 @@
       <c r="F40" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="G40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="n">
         <v>39</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="1" t="n">
         <v>40</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="1" t="n">
         <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,13 +2234,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>36</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="102">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -300,7 +300,25 @@
     <t xml:space="preserve">kMinN2LargeRand.c</t>
   </si>
   <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9</t>
+    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMinN2LargeDeter.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kClosestMedian.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find k numbers with minimum absolute distance from the mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createPrintRandBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomly create and print a binary search tree in tree form</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut</t>
@@ -636,8 +654,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1492,19 +1510,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="1" t="n">
         <v>42</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="n">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="n">
         <v>44</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2234,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>36</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -319,6 +319,24 @@
   </si>
   <si>
     <t xml:space="preserve">Randomly create and print a binary search tree in tree form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printBST.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header file for printBST function defined in 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delNodeBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a node from a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertAVL.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert a node into the AVL tree</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut</t>
@@ -654,8 +672,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C36" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C46" activeCellId="0" sqref="C46"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1567,22 +1585,67 @@
         <v>9</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="n">
         <v>45</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="1" t="n">
         <v>46</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="1" t="n">
         <v>47</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2297,13 +2360,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>36</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="java_programs" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
+    <sheet name="java_programs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,361 +21,352 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
   <si>
-    <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalRecur.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursive implementation of tree traversal algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalIter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative Implementation of tree traversals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levelTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a tree find it's level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trieArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array implementation of TRIE DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSubstrLRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isTreeLevel.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given levels of a tree - does tree exists?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heightTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find height of the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isHeightPossible.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given height array - does a tree exists for those heights?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestSubStrRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max length of the substring which repeats at least k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressedTrie.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement compressed trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findTime.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the time taken for a given input n - Checking the max computing power of the CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findMaxArraySize.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max array size computer can support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cntInvMerge.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of split inversions - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickFirstPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - First Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickLastPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Last Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickMedPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Median of first, middle and last as pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabin_karp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementaion of Rabin Karp - finding a substring in a given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn_pike.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation of Turn Piker Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Recursive Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA2.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using Memoization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA3.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using three variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA4.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using piano period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA5.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input binary - Using matrix multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA6.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRank.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a value of x find the rank of the input number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankSort.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankGNH.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankLV.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumExistTwoNArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there two numbers in an array such that ai + aj = (a given sum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffOrdInds.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffAtlstLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffWInLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSumSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum subsequence using the prefix sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxProSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subsequence in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findFirstMinRHS.c</t>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>treeTraversalRecur.c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Recursive implementation of tree traversal algorithms</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>treeTraversalIter.c</t>
+  </si>
+  <si>
+    <t>Iterative Implementation of tree traversals</t>
+  </si>
+  <si>
+    <t>levelTree.c</t>
+  </si>
+  <si>
+    <t>Given a tree find it's level</t>
+  </si>
+  <si>
+    <t>trieArray.c</t>
+  </si>
+  <si>
+    <t>Array implementation of TRIE DS</t>
+  </si>
+  <si>
+    <t>maxSubstrLRabin.c</t>
+  </si>
+  <si>
+    <t>Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
+  </si>
+  <si>
+    <t>isTreeLevel.c</t>
+  </si>
+  <si>
+    <t>Given levels of a tree - does tree exists?</t>
+  </si>
+  <si>
+    <t>heightTree.c</t>
+  </si>
+  <si>
+    <t>Find height of the tree</t>
+  </si>
+  <si>
+    <t>isHeightPossible.c</t>
+  </si>
+  <si>
+    <t>Given height array - does a tree exists for those heights?</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>longestSubStrRabin.c</t>
+  </si>
+  <si>
+    <t>Find the max length of the substring which repeats at least k times</t>
+  </si>
+  <si>
+    <t>compressedTrie.c</t>
+  </si>
+  <si>
+    <t>Implement compressed trie</t>
+  </si>
+  <si>
+    <t>findTime.c</t>
+  </si>
+  <si>
+    <t>Find the time taken for a given input n - Checking the max computing power of the CPU</t>
+  </si>
+  <si>
+    <t>findMaxArraySize.c</t>
+  </si>
+  <si>
+    <t>Find max array size computer can support</t>
+  </si>
+  <si>
+    <t>cntInvMerge.c</t>
+  </si>
+  <si>
+    <t>Count the number of split inversions - coursera</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>quickFirstPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - First Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickLastPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Last Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickMedPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Median of first, middle and last as pivot - coursera</t>
+  </si>
+  <si>
+    <t>rabin_karp.c</t>
+  </si>
+  <si>
+    <t>Implementaion of Rabin Karp - finding a substring in a given string</t>
+  </si>
+  <si>
+    <t>turn_pike.c</t>
+  </si>
+  <si>
+    <t>Implementation of Turn Piker Problem</t>
+  </si>
+  <si>
+    <t>fiboModA1.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Recursive Implementation</t>
+  </si>
+  <si>
+    <t>fiboModA2.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using Memoization</t>
+  </si>
+  <si>
+    <t>fiboModA3.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using three variables</t>
+  </si>
+  <si>
+    <t>fiboModA4.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using piano period</t>
+  </si>
+  <si>
+    <t>fiboModA5.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input binary - Using matrix multiplication</t>
+  </si>
+  <si>
+    <t>fiboModA6.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
+  </si>
+  <si>
+    <t>findRank.c</t>
+  </si>
+  <si>
+    <t>Given a value of x find the rank of the input number</t>
+  </si>
+  <si>
+    <t>findElRankSort.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r'</t>
+  </si>
+  <si>
+    <t>findElRankGNH.c</t>
+  </si>
+  <si>
+    <t>Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
+  </si>
+  <si>
+    <t>findElRankLV.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using Las Vegas</t>
+  </si>
+  <si>
+    <t>findElRankDeter.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+  <si>
+    <t>sumExistTwoNArray.c</t>
+  </si>
+  <si>
+    <t>Are there two numbers in an array such that ai + aj = (a given sum)</t>
+  </si>
+  <si>
+    <t>maxDiffOrdInds.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
+  </si>
+  <si>
+    <t>maxDiffAtlstLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
+  </si>
+  <si>
+    <t>maxDiffWInLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
+  </si>
+  <si>
+    <t>maxSumSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum sum subsequence using the prefix sum</t>
+  </si>
+  <si>
+    <t>maxProSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum product subsequence in an array</t>
+  </si>
+  <si>
+    <t>findFirstMinRHS.c</t>
   </si>
   <si>
     <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
   </si>
   <si>
-    <t xml:space="preserve">findMaxAreaRect.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a number array find the maximum area of the rectangle ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing33.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 33 with a large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing37.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 37 with a large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generateRandom.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a random number file with ~ 10^6 numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kMinN2LargeRand.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kMinN2LargeDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kClosestMedian.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k numbers with minimum absolute distance from the mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createPrintRandBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomly create and print a binary search tree in tree form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printBST.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for printBST function defined in 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delNodeBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertAVL.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert a node into the AVL tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KargerMinCut</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+    <t>findMaxAreaRect.c</t>
+  </si>
+  <si>
+    <t>Given a number array find the maximum area of the rectangle ()</t>
+  </si>
+  <si>
+    <t>testing33.c</t>
+  </si>
+  <si>
+    <t>Testing program 33 with a large number of inputs</t>
+  </si>
+  <si>
+    <t>testing37.c</t>
+  </si>
+  <si>
+    <t>Testing program 37 with a large number of inputs</t>
+  </si>
+  <si>
+    <t>generateRandom.c</t>
+  </si>
+  <si>
+    <t>Creating a random number file with ~ 10^6 numbers</t>
+  </si>
+  <si>
+    <t>kMinN2LargeRand.c</t>
+  </si>
+  <si>
+    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
+  </si>
+  <si>
+    <t>kMinN2LargeDeter.c</t>
+  </si>
+  <si>
+    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
+  </si>
+  <si>
+    <t>kClosestMedian.c</t>
+  </si>
+  <si>
+    <t>Find k numbers with minimum absolute distance from the mean</t>
+  </si>
+  <si>
+    <t>createPrintRandBST.c</t>
+  </si>
+  <si>
+    <t>Randomly create and print a binary search tree in tree form</t>
+  </si>
+  <si>
+    <t>printBST.h</t>
+  </si>
+  <si>
+    <t>Header file for printBST function defined in 44</t>
+  </si>
+  <si>
+    <t>delNodeBST.c</t>
+  </si>
+  <si>
+    <t>Delete a node from a BST</t>
+  </si>
+  <si>
+    <t>insertAVL.c</t>
+  </si>
+  <si>
+    <t>Insert a node into the AVL tree</t>
+  </si>
+  <si>
+    <t>KargerMinCut</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+  </si>
+  <si>
+    <t>unionFind.c</t>
+  </si>
+  <si>
+    <t>Implement union find data structure</t>
+  </si>
+  <si>
+    <t>Self</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -386,7 +376,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -394,7 +384,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -429,14 +419,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -447,7 +437,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -456,7 +446,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -467,7 +457,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -477,117 +467,71 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -646,13 +590,21 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G179" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G179" totalsRowShown="0">
   <autoFilter ref="B2:G179"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Sr. No. "/>
@@ -662,33 +614,314 @@
     <tableColumn id="5" name="Source"/>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:G179"/>
+  <dimension ref="A2:AMK179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C42" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C49" activeCellId="0" sqref="C49"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="91.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:7">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -708,8 +941,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="n">
+    <row r="3" spans="2:7">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -728,8 +961,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="2:7">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -748,8 +981,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="2:7">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -768,8 +1001,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="2:7">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -788,8 +1021,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="2:7">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -808,8 +1041,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="2:7">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -828,8 +1061,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="2:7">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -848,8 +1081,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="2:7">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -868,8 +1101,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="2:7">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -888,8 +1121,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="n">
+    <row r="12" spans="2:7">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -908,8 +1141,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="n">
+    <row r="13" spans="2:7">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -928,8 +1161,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="n">
+    <row r="14" spans="2:7">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -948,8 +1181,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="n">
+    <row r="15" spans="2:7">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -968,8 +1201,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="n">
+    <row r="16" spans="2:7">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -988,8 +1221,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="n">
+    <row r="17" spans="2:7">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1008,8 +1241,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="n">
+    <row r="18" spans="2:7">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1028,8 +1261,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="n">
+    <row r="19" spans="2:7">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1048,8 +1281,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="n">
+    <row r="20" spans="2:7">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1068,8 +1301,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="n">
+    <row r="21" spans="2:7">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1088,8 +1321,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="n">
+    <row r="22" spans="2:7">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1108,8 +1341,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="n">
+    <row r="23" spans="2:7">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1128,8 +1361,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="n">
+    <row r="24" spans="2:7">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1148,8 +1381,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="n">
+    <row r="25" spans="2:7">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1168,8 +1401,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="n">
+    <row r="26" spans="2:7">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1188,8 +1421,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="n">
+    <row r="27" spans="2:7">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1208,8 +1441,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="n">
+    <row r="28" spans="2:7">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1228,8 +1461,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="n">
+    <row r="29" spans="2:7">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1248,8 +1481,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="n">
+    <row r="30" spans="2:7">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1268,8 +1501,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="n">
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1288,8 +1521,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="n">
+    <row r="32" spans="2:7">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1308,8 +1541,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="n">
+    <row r="33" spans="2:7">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1328,8 +1561,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="n">
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1348,8 +1581,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="n">
+    <row r="35" spans="2:7">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1368,8 +1601,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="n">
+    <row r="36" spans="2:7">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1388,8 +1621,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="n">
+    <row r="37" spans="2:7">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1408,8 +1641,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="n">
+    <row r="38" spans="2:7">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1428,8 +1661,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="n">
+    <row r="39" spans="2:7">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1448,8 +1681,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="n">
+    <row r="40" spans="2:7">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1468,8 +1701,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="n">
+    <row r="41" spans="2:7">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1488,8 +1721,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="n">
+    <row r="42" spans="2:7">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1508,8 +1741,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="n">
+    <row r="43" spans="2:7">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1528,8 +1761,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="n">
+    <row r="44" spans="2:7">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1548,8 +1781,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="n">
+    <row r="45" spans="2:7">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1568,8 +1801,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="n">
+    <row r="46" spans="2:7">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1588,8 +1821,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="n">
+    <row r="47" spans="2:7">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1608,8 +1841,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="n">
+    <row r="48" spans="2:7">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1628,8 +1861,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="n">
+    <row r="49" spans="2:7">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1648,665 +1881,675 @@
         <v>25</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="n">
+    <row r="50" spans="2:7">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="n">
+      <c r="C50" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="n">
+    <row r="52" spans="2:7">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="n">
+    <row r="53" spans="2:7">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="n">
+    <row r="54" spans="2:7">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="n">
+    <row r="55" spans="2:7">
+      <c r="B55" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="n">
+    <row r="56" spans="2:7">
+      <c r="B56" s="1">
         <v>54</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="n">
+    <row r="57" spans="2:7">
+      <c r="B57" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="n">
+    <row r="58" spans="2:7">
+      <c r="B58" s="1">
         <v>56</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="n">
+    <row r="59" spans="2:7">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="n">
+    <row r="60" spans="2:7">
+      <c r="B60" s="1">
         <v>58</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="n">
+    <row r="61" spans="2:7">
+      <c r="B61" s="1">
         <v>59</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="n">
+    <row r="62" spans="2:7">
+      <c r="B62" s="1">
         <v>60</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="n">
+    <row r="63" spans="2:7">
+      <c r="B63" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="n">
+    <row r="64" spans="2:7">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="n">
+    <row r="65" spans="2:2">
+      <c r="B65" s="1">
         <v>63</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="n">
+    <row r="66" spans="2:2">
+      <c r="B66" s="1">
         <v>64</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="n">
+    <row r="67" spans="2:2">
+      <c r="B67" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="n">
+    <row r="68" spans="2:2">
+      <c r="B68" s="1">
         <v>66</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="n">
+    <row r="69" spans="2:2">
+      <c r="B69" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="n">
+    <row r="70" spans="2:2">
+      <c r="B70" s="1">
         <v>68</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
+    <row r="71" spans="2:2">
+      <c r="B71" s="1">
         <v>69</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="n">
+    <row r="72" spans="2:2">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="n">
+    <row r="73" spans="2:2">
+      <c r="B73" s="1">
         <v>71</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="n">
+    <row r="74" spans="2:2">
+      <c r="B74" s="1">
         <v>72</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="n">
+    <row r="75" spans="2:2">
+      <c r="B75" s="1">
         <v>73</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="n">
+    <row r="76" spans="2:2">
+      <c r="B76" s="1">
         <v>74</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="n">
+    <row r="77" spans="2:2">
+      <c r="B77" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="n">
+    <row r="78" spans="2:2">
+      <c r="B78" s="1">
         <v>76</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="n">
+    <row r="79" spans="2:2">
+      <c r="B79" s="1">
         <v>77</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="n">
+    <row r="80" spans="2:2">
+      <c r="B80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="n">
+    <row r="81" spans="2:2">
+      <c r="B81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="n">
+    <row r="82" spans="2:2">
+      <c r="B82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="n">
+    <row r="83" spans="2:2">
+      <c r="B83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="n">
+    <row r="84" spans="2:2">
+      <c r="B84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="n">
+    <row r="85" spans="2:2">
+      <c r="B85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="n">
+    <row r="86" spans="2:2">
+      <c r="B86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="n">
+    <row r="87" spans="2:2">
+      <c r="B87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="n">
+    <row r="88" spans="2:2">
+      <c r="B88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="n">
+    <row r="89" spans="2:2">
+      <c r="B89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="n">
+    <row r="90" spans="2:2">
+      <c r="B90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="n">
+    <row r="91" spans="2:2">
+      <c r="B91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="n">
+    <row r="92" spans="2:2">
+      <c r="B92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="n">
+    <row r="93" spans="2:2">
+      <c r="B93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="n">
+    <row r="94" spans="2:2">
+      <c r="B94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="n">
+    <row r="95" spans="2:2">
+      <c r="B95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="n">
+    <row r="96" spans="2:2">
+      <c r="B96" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="n">
+    <row r="97" spans="2:2">
+      <c r="B97" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="n">
+    <row r="98" spans="2:2">
+      <c r="B98" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="n">
+    <row r="99" spans="2:2">
+      <c r="B99" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="n">
+    <row r="100" spans="2:2">
+      <c r="B100" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="n">
+    <row r="101" spans="2:2">
+      <c r="B101" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="n">
+    <row r="102" spans="2:2">
+      <c r="B102" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="n">
+    <row r="103" spans="2:2">
+      <c r="B103" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="n">
+    <row r="104" spans="2:2">
+      <c r="B104" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="n">
+    <row r="105" spans="2:2">
+      <c r="B105" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="n">
+    <row r="106" spans="2:2">
+      <c r="B106" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="n">
+    <row r="107" spans="2:2">
+      <c r="B107" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="n">
+    <row r="108" spans="2:2">
+      <c r="B108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="n">
+    <row r="109" spans="2:2">
+      <c r="B109" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="n">
+    <row r="110" spans="2:2">
+      <c r="B110" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="n">
+    <row r="111" spans="2:2">
+      <c r="B111" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="n">
+    <row r="112" spans="2:2">
+      <c r="B112" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="n">
+    <row r="113" spans="2:2">
+      <c r="B113" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="n">
+    <row r="114" spans="2:2">
+      <c r="B114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="n">
+    <row r="115" spans="2:2">
+      <c r="B115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1" t="n">
+    <row r="116" spans="2:2">
+      <c r="B116" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="n">
+    <row r="117" spans="2:2">
+      <c r="B117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="1" t="n">
+    <row r="118" spans="2:2">
+      <c r="B118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="n">
+    <row r="119" spans="2:2">
+      <c r="B119" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="n">
+    <row r="120" spans="2:2">
+      <c r="B120" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="n">
+    <row r="121" spans="2:2">
+      <c r="B121" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1" t="n">
+    <row r="122" spans="2:2">
+      <c r="B122" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="n">
+    <row r="123" spans="2:2">
+      <c r="B123" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="n">
+    <row r="124" spans="2:2">
+      <c r="B124" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="n">
+    <row r="125" spans="2:2">
+      <c r="B125" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="n">
+    <row r="126" spans="2:2">
+      <c r="B126" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="n">
+    <row r="127" spans="2:2">
+      <c r="B127" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1" t="n">
+    <row r="128" spans="2:2">
+      <c r="B128" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="n">
+    <row r="129" spans="2:2">
+      <c r="B129" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1" t="n">
+    <row r="130" spans="2:2">
+      <c r="B130" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="n">
+    <row r="131" spans="2:2">
+      <c r="B131" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="n">
+    <row r="132" spans="2:2">
+      <c r="B132" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="n">
+    <row r="133" spans="2:2">
+      <c r="B133" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="1" t="n">
+    <row r="134" spans="2:2">
+      <c r="B134" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="1" t="n">
+    <row r="135" spans="2:2">
+      <c r="B135" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="1" t="n">
+    <row r="136" spans="2:2">
+      <c r="B136" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="1" t="n">
+    <row r="137" spans="2:2">
+      <c r="B137" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="1" t="n">
+    <row r="138" spans="2:2">
+      <c r="B138" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="n">
+    <row r="139" spans="2:2">
+      <c r="B139" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="1" t="n">
+    <row r="140" spans="2:2">
+      <c r="B140" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="1" t="n">
+    <row r="141" spans="2:2">
+      <c r="B141" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="1" t="n">
+    <row r="142" spans="2:2">
+      <c r="B142" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="1" t="n">
+    <row r="143" spans="2:2">
+      <c r="B143" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="1" t="n">
+    <row r="144" spans="2:2">
+      <c r="B144" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="1" t="n">
+    <row r="145" spans="2:2">
+      <c r="B145" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="n">
+    <row r="146" spans="2:2">
+      <c r="B146" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="1" t="n">
+    <row r="147" spans="2:2">
+      <c r="B147" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="1" t="n">
+    <row r="148" spans="2:2">
+      <c r="B148" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="1" t="n">
+    <row r="149" spans="2:2">
+      <c r="B149" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="1" t="n">
+    <row r="150" spans="2:2">
+      <c r="B150" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="n">
+    <row r="151" spans="2:2">
+      <c r="B151" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="1" t="n">
+    <row r="152" spans="2:2">
+      <c r="B152" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1" t="n">
+    <row r="153" spans="2:2">
+      <c r="B153" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="1" t="n">
+    <row r="154" spans="2:2">
+      <c r="B154" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1" t="n">
+    <row r="155" spans="2:2">
+      <c r="B155" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="1" t="n">
+    <row r="156" spans="2:2">
+      <c r="B156" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1" t="n">
+    <row r="157" spans="2:2">
+      <c r="B157" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="1" t="n">
+    <row r="158" spans="2:2">
+      <c r="B158" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1" t="n">
+    <row r="159" spans="2:2">
+      <c r="B159" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="1" t="n">
+    <row r="160" spans="2:2">
+      <c r="B160" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="1" t="n">
+    <row r="161" spans="2:2">
+      <c r="B161" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="1" t="n">
+    <row r="162" spans="2:2">
+      <c r="B162" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="1" t="n">
+    <row r="163" spans="2:2">
+      <c r="B163" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="1" t="n">
+    <row r="164" spans="2:2">
+      <c r="B164" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="n">
+    <row r="165" spans="2:2">
+      <c r="B165" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="1" t="n">
+    <row r="166" spans="2:2">
+      <c r="B166" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="1" t="n">
+    <row r="167" spans="2:2">
+      <c r="B167" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="1" t="n">
+    <row r="168" spans="2:2">
+      <c r="B168" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="1" t="n">
+    <row r="169" spans="2:2">
+      <c r="B169" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="1" t="n">
+    <row r="170" spans="2:2">
+      <c r="B170" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="1" t="n">
+    <row r="171" spans="2:2">
+      <c r="B171" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="1" t="n">
+    <row r="172" spans="2:2">
+      <c r="B172" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="1" t="n">
+    <row r="173" spans="2:2">
+      <c r="B173" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="1" t="n">
+    <row r="174" spans="2:2">
+      <c r="B174" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="1" t="n">
+    <row r="175" spans="2:2">
+      <c r="B175" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="1" t="n">
+    <row r="176" spans="2:2">
+      <c r="B176" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="1" t="n">
+    <row r="177" spans="2:2">
+      <c r="B177" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="1" t="n">
+    <row r="178" spans="2:2">
+      <c r="B178" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="1" t="n">
+    <row r="179" spans="2:2">
+      <c r="B179" s="1">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
@@ -2314,28 +2557,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="85.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:7" ht="15.75">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2355,8 +2595,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="n">
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="11">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
@@ -2375,7 +2615,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:7" ht="15.75">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -2383,7 +2623,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:7" ht="15.75">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2391,7 +2631,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -2400,38 +2640,23 @@
       <c r="G6" s="18"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
-    <sheet name="java_programs" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="java_programs" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -21,352 +22,376 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
   <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>Language</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>treeTraversalRecur.c</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>Recursive implementation of tree traversal algorithms</t>
-  </si>
-  <si>
-    <t>Class</t>
-  </si>
-  <si>
-    <t>Completed</t>
-  </si>
-  <si>
-    <t>treeTraversalIter.c</t>
-  </si>
-  <si>
-    <t>Iterative Implementation of tree traversals</t>
-  </si>
-  <si>
-    <t>levelTree.c</t>
-  </si>
-  <si>
-    <t>Given a tree find it's level</t>
-  </si>
-  <si>
-    <t>trieArray.c</t>
-  </si>
-  <si>
-    <t>Array implementation of TRIE DS</t>
-  </si>
-  <si>
-    <t>maxSubstrLRabin.c</t>
-  </si>
-  <si>
-    <t>Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
-  </si>
-  <si>
-    <t>isTreeLevel.c</t>
-  </si>
-  <si>
-    <t>Given levels of a tree - does tree exists?</t>
-  </si>
-  <si>
-    <t>heightTree.c</t>
-  </si>
-  <si>
-    <t>Find height of the tree</t>
-  </si>
-  <si>
-    <t>isHeightPossible.c</t>
-  </si>
-  <si>
-    <t>Given height array - does a tree exists for those heights?</t>
-  </si>
-  <si>
-    <t>Incomplete</t>
-  </si>
-  <si>
-    <t>longestSubStrRabin.c</t>
-  </si>
-  <si>
-    <t>Find the max length of the substring which repeats at least k times</t>
-  </si>
-  <si>
-    <t>compressedTrie.c</t>
-  </si>
-  <si>
-    <t>Implement compressed trie</t>
-  </si>
-  <si>
-    <t>findTime.c</t>
-  </si>
-  <si>
-    <t>Find the time taken for a given input n - Checking the max computing power of the CPU</t>
-  </si>
-  <si>
-    <t>findMaxArraySize.c</t>
-  </si>
-  <si>
-    <t>Find max array size computer can support</t>
-  </si>
-  <si>
-    <t>cntInvMerge.c</t>
-  </si>
-  <si>
-    <t>Count the number of split inversions - coursera</t>
-  </si>
-  <si>
-    <t>Coursera</t>
-  </si>
-  <si>
-    <t>quickFirstPivot.c</t>
-  </si>
-  <si>
-    <t>Quick Sort - First Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t>quickLastPivot.c</t>
-  </si>
-  <si>
-    <t>Quick Sort - Last Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t>quickMedPivot.c</t>
-  </si>
-  <si>
-    <t>Quick Sort - Median of first, middle and last as pivot - coursera</t>
-  </si>
-  <si>
-    <t>rabin_karp.c</t>
-  </si>
-  <si>
-    <t>Implementaion of Rabin Karp - finding a substring in a given string</t>
-  </si>
-  <si>
-    <t>turn_pike.c</t>
-  </si>
-  <si>
-    <t>Implementation of Turn Piker Problem</t>
-  </si>
-  <si>
-    <t>fiboModA1.c</t>
-  </si>
-  <si>
-    <t>Fibonacci Mod - Recursive Implementation</t>
-  </si>
-  <si>
-    <t>fiboModA2.c</t>
-  </si>
-  <si>
-    <t>Fibonacci Mod - Using Memoization</t>
-  </si>
-  <si>
-    <t>fiboModA3.c</t>
-  </si>
-  <si>
-    <t>Fibonacci Mod - Using three variables</t>
-  </si>
-  <si>
-    <t>fiboModA4.c</t>
-  </si>
-  <si>
-    <t>Fibonacci Mod - Using piano period</t>
-  </si>
-  <si>
-    <t>fiboModA5.c</t>
-  </si>
-  <si>
-    <t>Fibonacci Mod - Input binary - Using matrix multiplication</t>
-  </si>
-  <si>
-    <t>fiboModA6.c</t>
-  </si>
-  <si>
-    <t>Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
-  </si>
-  <si>
-    <t>findRank.c</t>
-  </si>
-  <si>
-    <t>Given a value of x find the rank of the input number</t>
-  </si>
-  <si>
-    <t>findElRankSort.c</t>
-  </si>
-  <si>
-    <t>Find element with given rank 'r'</t>
-  </si>
-  <si>
-    <t>findElRankGNH.c</t>
-  </si>
-  <si>
-    <t>Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
-  </si>
-  <si>
-    <t>findElRankLV.c</t>
-  </si>
-  <si>
-    <t>Find element with given rank 'r' - Using Las Vegas</t>
-  </si>
-  <si>
-    <t>findElRankDeter.c</t>
-  </si>
-  <si>
-    <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
-  </si>
-  <si>
-    <t>sumExistTwoNArray.c</t>
-  </si>
-  <si>
-    <t>Are there two numbers in an array such that ai + aj = (a given sum)</t>
-  </si>
-  <si>
-    <t>maxDiffOrdInds.c</t>
-  </si>
-  <si>
-    <t>Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
-  </si>
-  <si>
-    <t>maxDiffAtlstLDist.c</t>
-  </si>
-  <si>
-    <t>Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
-  </si>
-  <si>
-    <t>maxDiffWInLDist.c</t>
-  </si>
-  <si>
-    <t>Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
-  </si>
-  <si>
-    <t>maxSumSubSeq.c</t>
-  </si>
-  <si>
-    <t>Maximum sum subsequence using the prefix sum</t>
-  </si>
-  <si>
-    <t>maxProSubSeq.c</t>
-  </si>
-  <si>
-    <t>Maximum product subsequence in an array</t>
-  </si>
-  <si>
-    <t>findFirstMinRHS.c</t>
+    <t xml:space="preserve">File Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeTraversalRecur.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursive implementation of tree traversal algorithms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">treeTraversalIter.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iterative Implementation of tree traversals</t>
+  </si>
+  <si>
+    <t xml:space="preserve">levelTree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a tree find it's level</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trieArray.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Array implementation of TRIE DS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxSubstrLRabin.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isTreeLevel.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given levels of a tree - does tree exists?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heightTree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find height of the tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isHeightPossible.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given height array - does a tree exists for those heights?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Incomplete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longestSubStrRabin.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the max length of the substring which repeats at least k times</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compressedTrie.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement compressed trie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findTime.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the time taken for a given input n - Checking the max computing power of the CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findMaxArraySize.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find max array size computer can support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cntInvMerge.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count the number of split inversions - coursera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coursera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quickFirstPivot.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort - First Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quickLastPivot.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort - Last Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">quickMedPivot.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quick Sort - Median of first, middle and last as pivot - coursera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rabin_karp.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementaion of Rabin Karp - finding a substring in a given string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turn_pike.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementation of Turn Piker Problem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiboModA1.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Mod - Recursive Implementation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiboModA2.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Mod - Using Memoization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiboModA3.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Mod - Using three variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiboModA4.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Mod - Using piano period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiboModA5.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Mod - Input binary - Using matrix multiplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fiboModA6.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findRank.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a value of x find the rank of the input number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findElRankSort.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find element with given rank 'r'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findElRankGNH.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findElRankLV.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find element with given rank 'r' - Using Las Vegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findElRankDeter.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumExistTwoNArray.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are there two numbers in an array such that ai + aj = (a given sum)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxDiffOrdInds.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxDiffAtlstLDist.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxDiffWInLDist.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxSumSubSeq.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum sum subsequence using the prefix sum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxProSubSeq.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum product subsequence in an array</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findFirstMinRHS.c</t>
   </si>
   <si>
     <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
   </si>
   <si>
-    <t>findMaxAreaRect.c</t>
-  </si>
-  <si>
-    <t>Given a number array find the maximum area of the rectangle ()</t>
-  </si>
-  <si>
-    <t>testing33.c</t>
-  </si>
-  <si>
-    <t>Testing program 33 with a large number of inputs</t>
-  </si>
-  <si>
-    <t>testing37.c</t>
-  </si>
-  <si>
-    <t>Testing program 37 with a large number of inputs</t>
-  </si>
-  <si>
-    <t>generateRandom.c</t>
-  </si>
-  <si>
-    <t>Creating a random number file with ~ 10^6 numbers</t>
-  </si>
-  <si>
-    <t>kMinN2LargeRand.c</t>
-  </si>
-  <si>
-    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
-  </si>
-  <si>
-    <t>kMinN2LargeDeter.c</t>
-  </si>
-  <si>
-    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
-  </si>
-  <si>
-    <t>kClosestMedian.c</t>
-  </si>
-  <si>
-    <t>Find k numbers with minimum absolute distance from the mean</t>
-  </si>
-  <si>
-    <t>createPrintRandBST.c</t>
-  </si>
-  <si>
-    <t>Randomly create and print a binary search tree in tree form</t>
-  </si>
-  <si>
-    <t>printBST.h</t>
-  </si>
-  <si>
-    <t>Header file for printBST function defined in 44</t>
-  </si>
-  <si>
-    <t>delNodeBST.c</t>
-  </si>
-  <si>
-    <t>Delete a node from a BST</t>
-  </si>
-  <si>
-    <t>insertAVL.c</t>
-  </si>
-  <si>
-    <t>Insert a node into the AVL tree</t>
-  </si>
-  <si>
-    <t>KargerMinCut</t>
-  </si>
-  <si>
-    <t>Java</t>
-  </si>
-  <si>
-    <t>Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
-  </si>
-  <si>
-    <t>unionFind.c</t>
-  </si>
-  <si>
-    <t>Implement union find data structure</t>
-  </si>
-  <si>
-    <t>Self</t>
+    <t xml:space="preserve">findMaxAreaRect.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Given a number array find the maximum area of the rectangle ()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing33.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 33 with a large number of inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing37.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 37 with a large number of inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">generateRandom.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating a random number file with ~ 10^6 numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMinN2LargeRand.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kMinN2LargeDeter.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kClosestMedian.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find k numbers with minimum absolute distance from the mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">createPrintRandBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Randomly create and print a binary search tree in tree form</t>
+  </si>
+  <si>
+    <t xml:space="preserve">printBST.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header file for printBST function defined in 44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delNodeBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a node from a BST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertAVL.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert a node into the AVL tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unionFind.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implement union find data structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self</t>
+  </si>
+  <si>
+    <t xml:space="preserve">delNodeAVL.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a node from AVL tree while maintaining the AVL property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KargerMinCut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="General"/>
+  </numFmts>
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -376,7 +401,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -384,7 +409,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -419,14 +444,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -437,7 +462,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -446,7 +471,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -457,7 +482,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -467,71 +492,117 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -590,21 +661,13 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G179" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G179" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="B2:G179"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Sr. No. "/>
@@ -614,314 +677,33 @@
     <tableColumn id="5" name="Source"/>
     <tableColumn id="6" name="Status"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AMK179"/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="91.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="91.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -941,8 +723,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="1">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -961,8 +743,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="1">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -981,8 +763,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="1">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1001,8 +783,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="1">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1021,8 +803,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="1">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1041,8 +823,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="1">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1061,8 +843,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="1">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1081,8 +863,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="1">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1101,8 +883,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="1">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1121,8 +903,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="1">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1141,8 +923,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="1">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1161,8 +943,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="1">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1181,8 +963,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="1">
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1201,8 +983,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="1">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1221,8 +1003,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="1">
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1241,8 +1023,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="1">
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1261,8 +1043,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="1">
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1281,8 +1063,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="1">
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1301,8 +1083,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="1">
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1321,8 +1103,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="1">
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1341,8 +1123,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="1">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1361,8 +1143,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="1">
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1381,8 +1163,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="1">
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1401,8 +1183,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="1">
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1421,8 +1203,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="1">
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1441,8 +1223,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="1">
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1461,8 +1243,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="1">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1481,8 +1263,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="2:7">
-      <c r="B30" s="1">
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1501,8 +1283,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="2:7">
-      <c r="B31" s="1">
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1521,8 +1303,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="2:7">
-      <c r="B32" s="1">
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1541,8 +1323,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="2:7">
-      <c r="B33" s="1">
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1561,8 +1343,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="2:7">
-      <c r="B34" s="1">
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1581,8 +1363,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="1">
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1601,8 +1383,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="1">
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1621,8 +1403,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="1">
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1641,8 +1423,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="1">
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1661,8 +1443,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="1">
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1681,8 +1463,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="1">
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1701,8 +1483,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="1">
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1721,8 +1503,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="1">
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1741,8 +1523,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="1">
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1761,8 +1543,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="1">
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1781,8 +1563,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="1">
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1801,8 +1583,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="1">
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1821,8 +1603,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="1">
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1841,8 +1623,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="1">
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1861,8 +1643,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="1">
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1878,678 +1660,698 @@
         <v>9</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>7</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="1">
+    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="1" t="n">
         <v>49</v>
       </c>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="1">
+      <c r="C51" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="1" t="n">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="1">
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="1" t="n">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="2:7">
-      <c r="B54" s="1">
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="1" t="n">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="1">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B55" s="1" t="n">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="1">
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="1" t="n">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="1">
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B57" s="1" t="n">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="1">
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="1" t="n">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="1">
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B59" s="1" t="n">
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="1">
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B60" s="1" t="n">
         <v>58</v>
       </c>
     </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="1">
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="1" t="n">
         <v>59</v>
       </c>
     </row>
-    <row r="62" spans="2:7">
-      <c r="B62" s="1">
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="1" t="n">
         <v>60</v>
       </c>
     </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="1">
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="1" t="n">
         <v>61</v>
       </c>
     </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="1">
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B64" s="1" t="n">
         <v>62</v>
       </c>
     </row>
-    <row r="65" spans="2:2">
-      <c r="B65" s="1">
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B65" s="1" t="n">
         <v>63</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
-      <c r="B66" s="1">
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="1" t="n">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="2:2">
-      <c r="B67" s="1">
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B67" s="1" t="n">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
-      <c r="B68" s="1">
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B68" s="1" t="n">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="2:2">
-      <c r="B69" s="1">
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="1" t="n">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
-      <c r="B70" s="1">
+    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B70" s="1" t="n">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="2:2">
-      <c r="B71" s="1">
+    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B71" s="1" t="n">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
-      <c r="B72" s="1">
+    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B72" s="1" t="n">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
-      <c r="B73" s="1">
+    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B73" s="1" t="n">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="2:2">
-      <c r="B74" s="1">
+    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B74" s="1" t="n">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
-      <c r="B75" s="1">
+    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B75" s="1" t="n">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="2:2">
-      <c r="B76" s="1">
+    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B76" s="1" t="n">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
-      <c r="B77" s="1">
+    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B77" s="1" t="n">
         <v>75</v>
       </c>
     </row>
-    <row r="78" spans="2:2">
-      <c r="B78" s="1">
+    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B78" s="1" t="n">
         <v>76</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
-      <c r="B79" s="1">
+    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B79" s="1" t="n">
         <v>77</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" s="1">
+    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B80" s="1" t="n">
         <v>78</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" s="1">
+    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B81" s="1" t="n">
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="2:2">
-      <c r="B82" s="1">
+    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B82" s="1" t="n">
         <v>80</v>
       </c>
     </row>
-    <row r="83" spans="2:2">
-      <c r="B83" s="1">
+    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B83" s="1" t="n">
         <v>81</v>
       </c>
     </row>
-    <row r="84" spans="2:2">
-      <c r="B84" s="1">
+    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B84" s="1" t="n">
         <v>82</v>
       </c>
     </row>
-    <row r="85" spans="2:2">
-      <c r="B85" s="1">
+    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B85" s="1" t="n">
         <v>83</v>
       </c>
     </row>
-    <row r="86" spans="2:2">
-      <c r="B86" s="1">
+    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B86" s="1" t="n">
         <v>84</v>
       </c>
     </row>
-    <row r="87" spans="2:2">
-      <c r="B87" s="1">
+    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B87" s="1" t="n">
         <v>85</v>
       </c>
     </row>
-    <row r="88" spans="2:2">
-      <c r="B88" s="1">
+    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B88" s="1" t="n">
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="2:2">
-      <c r="B89" s="1">
+    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B89" s="1" t="n">
         <v>87</v>
       </c>
     </row>
-    <row r="90" spans="2:2">
-      <c r="B90" s="1">
+    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B90" s="1" t="n">
         <v>88</v>
       </c>
     </row>
-    <row r="91" spans="2:2">
-      <c r="B91" s="1">
+    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B91" s="1" t="n">
         <v>89</v>
       </c>
     </row>
-    <row r="92" spans="2:2">
-      <c r="B92" s="1">
+    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B92" s="1" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="93" spans="2:2">
-      <c r="B93" s="1">
+    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B93" s="1" t="n">
         <v>91</v>
       </c>
     </row>
-    <row r="94" spans="2:2">
-      <c r="B94" s="1">
+    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B94" s="1" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="95" spans="2:2">
-      <c r="B95" s="1">
+    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B95" s="1" t="n">
         <v>93</v>
       </c>
     </row>
-    <row r="96" spans="2:2">
-      <c r="B96" s="1">
+    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B96" s="1" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="97" spans="2:2">
-      <c r="B97" s="1">
+    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B97" s="1" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="2:2">
-      <c r="B98" s="1">
+    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B98" s="1" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1">
+    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B99" s="1" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="2:2">
-      <c r="B100" s="1">
+    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B100" s="1" t="n">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="2:2">
-      <c r="B101" s="1">
+    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B101" s="1" t="n">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" s="1">
+    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B102" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" s="1">
+    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B103" s="1" t="n">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" s="1">
+    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B104" s="1" t="n">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="2:2">
-      <c r="B105" s="1">
+    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B105" s="1" t="n">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="2:2">
-      <c r="B106" s="1">
+    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B106" s="1" t="n">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="2:2">
-      <c r="B107" s="1">
+    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B107" s="1" t="n">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="2:2">
-      <c r="B108" s="1">
+    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B108" s="1" t="n">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="2:2">
-      <c r="B109" s="1">
+    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B109" s="1" t="n">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="2:2">
-      <c r="B110" s="1">
+    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B110" s="1" t="n">
         <v>108</v>
       </c>
     </row>
-    <row r="111" spans="2:2">
-      <c r="B111" s="1">
+    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B111" s="1" t="n">
         <v>109</v>
       </c>
     </row>
-    <row r="112" spans="2:2">
-      <c r="B112" s="1">
+    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B112" s="1" t="n">
         <v>110</v>
       </c>
     </row>
-    <row r="113" spans="2:2">
-      <c r="B113" s="1">
+    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B113" s="1" t="n">
         <v>111</v>
       </c>
     </row>
-    <row r="114" spans="2:2">
-      <c r="B114" s="1">
+    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B114" s="1" t="n">
         <v>112</v>
       </c>
     </row>
-    <row r="115" spans="2:2">
-      <c r="B115" s="1">
+    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B115" s="1" t="n">
         <v>113</v>
       </c>
     </row>
-    <row r="116" spans="2:2">
-      <c r="B116" s="1">
+    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B116" s="1" t="n">
         <v>114</v>
       </c>
     </row>
-    <row r="117" spans="2:2">
-      <c r="B117" s="1">
+    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B117" s="1" t="n">
         <v>115</v>
       </c>
     </row>
-    <row r="118" spans="2:2">
-      <c r="B118" s="1">
+    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B118" s="1" t="n">
         <v>116</v>
       </c>
     </row>
-    <row r="119" spans="2:2">
-      <c r="B119" s="1">
+    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B119" s="1" t="n">
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" s="1">
+    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B120" s="1" t="n">
         <v>118</v>
       </c>
     </row>
-    <row r="121" spans="2:2">
-      <c r="B121" s="1">
+    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B121" s="1" t="n">
         <v>119</v>
       </c>
     </row>
-    <row r="122" spans="2:2">
-      <c r="B122" s="1">
+    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B122" s="1" t="n">
         <v>120</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" s="1">
+    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B123" s="1" t="n">
         <v>121</v>
       </c>
     </row>
-    <row r="124" spans="2:2">
-      <c r="B124" s="1">
+    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B124" s="1" t="n">
         <v>122</v>
       </c>
     </row>
-    <row r="125" spans="2:2">
-      <c r="B125" s="1">
+    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B125" s="1" t="n">
         <v>123</v>
       </c>
     </row>
-    <row r="126" spans="2:2">
-      <c r="B126" s="1">
+    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B126" s="1" t="n">
         <v>124</v>
       </c>
     </row>
-    <row r="127" spans="2:2">
-      <c r="B127" s="1">
+    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B127" s="1" t="n">
         <v>125</v>
       </c>
     </row>
-    <row r="128" spans="2:2">
-      <c r="B128" s="1">
+    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B128" s="1" t="n">
         <v>126</v>
       </c>
     </row>
-    <row r="129" spans="2:2">
-      <c r="B129" s="1">
+    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B129" s="1" t="n">
         <v>127</v>
       </c>
     </row>
-    <row r="130" spans="2:2">
-      <c r="B130" s="1">
+    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B130" s="1" t="n">
         <v>128</v>
       </c>
     </row>
-    <row r="131" spans="2:2">
-      <c r="B131" s="1">
+    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B131" s="1" t="n">
         <v>129</v>
       </c>
     </row>
-    <row r="132" spans="2:2">
-      <c r="B132" s="1">
+    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B132" s="1" t="n">
         <v>130</v>
       </c>
     </row>
-    <row r="133" spans="2:2">
-      <c r="B133" s="1">
+    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B133" s="1" t="n">
         <v>131</v>
       </c>
     </row>
-    <row r="134" spans="2:2">
-      <c r="B134" s="1">
+    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B134" s="1" t="n">
         <v>132</v>
       </c>
     </row>
-    <row r="135" spans="2:2">
-      <c r="B135" s="1">
+    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B135" s="1" t="n">
         <v>133</v>
       </c>
     </row>
-    <row r="136" spans="2:2">
-      <c r="B136" s="1">
+    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B136" s="1" t="n">
         <v>134</v>
       </c>
     </row>
-    <row r="137" spans="2:2">
-      <c r="B137" s="1">
+    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B137" s="1" t="n">
         <v>135</v>
       </c>
     </row>
-    <row r="138" spans="2:2">
-      <c r="B138" s="1">
+    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B138" s="1" t="n">
         <v>136</v>
       </c>
     </row>
-    <row r="139" spans="2:2">
-      <c r="B139" s="1">
+    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B139" s="1" t="n">
         <v>137</v>
       </c>
     </row>
-    <row r="140" spans="2:2">
-      <c r="B140" s="1">
+    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B140" s="1" t="n">
         <v>138</v>
       </c>
     </row>
-    <row r="141" spans="2:2">
-      <c r="B141" s="1">
+    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B141" s="1" t="n">
         <v>139</v>
       </c>
     </row>
-    <row r="142" spans="2:2">
-      <c r="B142" s="1">
+    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B142" s="1" t="n">
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="2:2">
-      <c r="B143" s="1">
+    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B143" s="1" t="n">
         <v>141</v>
       </c>
     </row>
-    <row r="144" spans="2:2">
-      <c r="B144" s="1">
+    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B144" s="1" t="n">
         <v>142</v>
       </c>
     </row>
-    <row r="145" spans="2:2">
-      <c r="B145" s="1">
+    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B145" s="1" t="n">
         <v>143</v>
       </c>
     </row>
-    <row r="146" spans="2:2">
-      <c r="B146" s="1">
+    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B146" s="1" t="n">
         <v>144</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" s="1">
+    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B147" s="1" t="n">
         <v>145</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" s="1">
+    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B148" s="1" t="n">
         <v>146</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" s="1">
+    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B149" s="1" t="n">
         <v>147</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" s="1">
+    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B150" s="1" t="n">
         <v>148</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" s="1">
+    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B151" s="1" t="n">
         <v>149</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="1">
+    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B152" s="1" t="n">
         <v>150</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" s="1">
+    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B153" s="1" t="n">
         <v>151</v>
       </c>
     </row>
-    <row r="154" spans="2:2">
-      <c r="B154" s="1">
+    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B154" s="1" t="n">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="2:2">
-      <c r="B155" s="1">
+    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B155" s="1" t="n">
         <v>153</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="1">
+    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B156" s="1" t="n">
         <v>154</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" s="1">
+    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B157" s="1" t="n">
         <v>155</v>
       </c>
     </row>
-    <row r="158" spans="2:2">
-      <c r="B158" s="1">
+    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B158" s="1" t="n">
         <v>156</v>
       </c>
     </row>
-    <row r="159" spans="2:2">
-      <c r="B159" s="1">
+    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B159" s="1" t="n">
         <v>157</v>
       </c>
     </row>
-    <row r="160" spans="2:2">
-      <c r="B160" s="1">
+    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B160" s="1" t="n">
         <v>158</v>
       </c>
     </row>
-    <row r="161" spans="2:2">
-      <c r="B161" s="1">
+    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B161" s="1" t="n">
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="2:2">
-      <c r="B162" s="1">
+    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B162" s="1" t="n">
         <v>160</v>
       </c>
     </row>
-    <row r="163" spans="2:2">
-      <c r="B163" s="1">
+    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B163" s="1" t="n">
         <v>161</v>
       </c>
     </row>
-    <row r="164" spans="2:2">
-      <c r="B164" s="1">
+    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B164" s="1" t="n">
         <v>162</v>
       </c>
     </row>
-    <row r="165" spans="2:2">
-      <c r="B165" s="1">
+    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B165" s="1" t="n">
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="2:2">
-      <c r="B166" s="1">
+    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B166" s="1" t="n">
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="2:2">
-      <c r="B167" s="1">
+    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B167" s="1" t="n">
         <v>165</v>
       </c>
     </row>
-    <row r="168" spans="2:2">
-      <c r="B168" s="1">
+    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B168" s="1" t="n">
         <v>166</v>
       </c>
     </row>
-    <row r="169" spans="2:2">
-      <c r="B169" s="1">
+    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B169" s="1" t="n">
         <v>167</v>
       </c>
     </row>
-    <row r="170" spans="2:2">
-      <c r="B170" s="1">
+    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B170" s="1" t="n">
         <v>168</v>
       </c>
     </row>
-    <row r="171" spans="2:2">
-      <c r="B171" s="1">
+    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B171" s="1" t="n">
         <v>169</v>
       </c>
     </row>
-    <row r="172" spans="2:2">
-      <c r="B172" s="1">
+    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B172" s="1" t="n">
         <v>170</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" s="1">
+    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B173" s="1" t="n">
         <v>171</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" s="1">
+    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B174" s="1" t="n">
         <v>172</v>
       </c>
     </row>
-    <row r="175" spans="2:2">
-      <c r="B175" s="1">
+    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B175" s="1" t="n">
         <v>173</v>
       </c>
     </row>
-    <row r="176" spans="2:2">
-      <c r="B176" s="1">
+    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B176" s="1" t="n">
         <v>174</v>
       </c>
     </row>
-    <row r="177" spans="2:2">
-      <c r="B177" s="1">
+    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B177" s="1" t="n">
         <v>175</v>
       </c>
     </row>
-    <row r="178" spans="2:2">
-      <c r="B178" s="1">
+    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="1" t="n">
         <v>176</v>
       </c>
     </row>
-    <row r="179" spans="2:2">
-      <c r="B179" s="1">
+    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="1" t="n">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="1">
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
@@ -2557,25 +2359,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="B2:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="85.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="15" customWidth="1"/>
-    <col min="8" max="1025" width="8.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="85.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="15.75">
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="7" t="s">
         <v>0</v>
       </c>
@@ -2595,18 +2400,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="2:7" ht="15.75">
-      <c r="B3" s="11">
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="11" t="n">
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>36</v>
@@ -2615,7 +2420,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:7" ht="15.75">
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="15"/>
@@ -2623,7 +2428,7 @@
       <c r="F4" s="17"/>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" spans="2:7" ht="15.75">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2631,7 +2436,7 @@
       <c r="F5" s="13"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:7" ht="15.75">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="15"/>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -2640,23 +2445,38 @@
       <c r="G6" s="18"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -354,13 +354,22 @@
     <t xml:space="preserve">Delete a node from AVL tree while maintaining the AVL property</t>
   </si>
   <si>
-    <t xml:space="preserve">KargerMinCut</t>
+    <t xml:space="preserve">KargerMinCut.java</t>
   </si>
   <si>
     <t xml:space="preserve">Java</t>
   </si>
   <si>
     <t xml:space="preserve">Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MaxFactors.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maximum factors formed by two numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geeks</t>
   </si>
 </sst>
 </file>
@@ -687,7 +696,7 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
     </sheetView>
   </sheetViews>
@@ -2362,10 +2371,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="B2:G6"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2420,15 +2429,25 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="17"/>
+    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="15" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>115</v>
+      </c>
       <c r="G4" s="18"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -2444,6 +2463,7 @@
       <c r="F6" s="17"/>
       <c r="G6" s="18"/>
     </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="118">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -352,6 +352,12 @@
   </si>
   <si>
     <t xml:space="preserve">Delete a node from AVL tree while maintaining the AVL property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insertRBTree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insert a node into a Red Black Tree</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -696,8 +702,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G52" activeCellId="0" sqref="G52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1709,12 +1715,27 @@
         <v>9</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="n">
         <v>50</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2373,7 +2394,7 @@
   </sheetPr>
   <dimension ref="B2:G9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2414,13 +2435,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>36</v>
@@ -2434,16 +2455,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="D4" s="15" t="s">
-        <v>111</v>
-      </c>
       <c r="E4" s="16" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G4" s="18"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="121">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -354,10 +354,19 @@
     <t xml:space="preserve">Delete a node from AVL tree while maintaining the AVL property</t>
   </si>
   <si>
+    <t xml:space="preserve">printRBTree.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header file for printing a Red Black Tree with colors</t>
+  </si>
+  <si>
     <t xml:space="preserve">insertRBTree.c</t>
   </si>
   <si>
     <t xml:space="preserve">Insert a node into a Red Black Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing Left</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -532,7 +541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -555,6 +564,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -702,8 +715,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C52" activeCellId="0" sqref="C52"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1698,7 +1711,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="n">
         <v>49</v>
       </c>
@@ -1718,29 +1731,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="D52" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="2" t="s">
+      <c r="D52" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E52" s="0" t="s">
         <v>111</v>
       </c>
-      <c r="F52" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>25</v>
+      <c r="F52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="1" t="n">
         <v>51</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2405,84 +2433,84 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="85.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="6" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="11" t="n">
+      <c r="B3" s="12" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="F3" s="13" t="s">
+      <c r="C3" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="15" t="n">
+      <c r="B4" s="16" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E4" s="16" t="s">
+      <c r="C4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="F4" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="18"/>
+      <c r="E4" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="19"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="18"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="19"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -541,7 +541,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -568,6 +568,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -716,7 +720,7 @@
   <dimension ref="B2:G179"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C54" activeCellId="0" sqref="C54"/>
+      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1741,7 +1745,7 @@
       <c r="D52" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E52" s="0" t="s">
+      <c r="E52" s="7" t="s">
         <v>111</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -2428,89 +2432,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="85.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="7" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="85.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="7" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="12" t="n">
+      <c r="B3" s="13" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="16" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="16" t="n">
+      <c r="B4" s="17" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="17" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="15"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="19"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2537,7 +2541,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="7" width="8.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="130">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -366,7 +366,34 @@
     <t xml:space="preserve">Insert a node into a Red Black Tree</t>
   </si>
   <si>
-    <t xml:space="preserve">Testing Left</t>
+    <t xml:space="preserve">delRBTree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete a node from a RBT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modAVL.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code for AVL insert and delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing53.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing header file for AVL insert and delete</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modRB.h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Header file for Red Black Tree insertion and deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing55.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing header file for Red Black Tree insertion and deletion</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -541,7 +568,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -566,8 +593,12 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -719,8 +750,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B34" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1772,32 +1803,107 @@
         <v>9</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="1" t="n">
         <v>52</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C54" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="1" t="n">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="1" t="n">
         <v>54</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="1" t="n">
         <v>55</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="1" t="n">
         <v>56</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2432,89 +2538,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="7" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="7" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="7" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="7" width="85.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="7" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="7" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="14.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="85.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="14.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="8" width="8.57"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="13" t="n">
+      <c r="B3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="15" t="s">
+      <c r="C3" s="14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="17" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="17" t="n">
+      <c r="B4" s="18" t="n">
         <v>2</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="G4" s="20"/>
+      <c r="C4" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="17"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="20"/>
+      <c r="B6" s="18"/>
+      <c r="C6" s="18"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="19"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
@@ -2541,7 +2647,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="7" width="8.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="8" width="8.57"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -394,6 +394,18 @@
   </si>
   <si>
     <t xml:space="preserve">Testing header file for Red Black Tree insertion and deletion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findRankBBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the rank of an element stored in a BBST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">findElRankBBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the element with a given rank stored in BBST</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -750,8 +762,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E39" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G58" activeCellId="0" sqref="G58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1823,7 +1835,7 @@
         <v>9</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1903,17 +1915,47 @@
         <v>9</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="n">
         <v>57</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="n">
         <v>58</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2573,13 +2615,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2593,16 +2635,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="138">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -406,6 +406,18 @@
   </si>
   <si>
     <t xml:space="preserve">Find the element with a given rank stored in BBST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing29.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 29 with large number of inputs of different sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intervalTree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build and print an interval tree</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -762,8 +774,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1935,7 +1947,7 @@
         <v>9</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1955,17 +1967,47 @@
         <v>9</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="1" t="n">
         <v>59</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C61" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="1" t="n">
         <v>60</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2615,13 +2657,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2635,16 +2677,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="142">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -417,7 +417,19 @@
     <t xml:space="preserve">intervalTree.c</t>
   </si>
   <si>
-    <t xml:space="preserve">Build and print an interval tree</t>
+    <t xml:space="preserve">Build and print an interval tree with max variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isOverlapIntervalTree.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the given interval overlaps with the intervals in the interval tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sumBWBBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the sum of numbers between two numbers in a BBST – Using prefix sums</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -774,8 +786,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C63" activeCellId="0" sqref="C63"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2007,17 +2019,47 @@
         <v>9</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="1" t="n">
         <v>61</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C63" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="1" t="n">
         <v>62</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2657,13 +2699,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2677,16 +2719,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="146">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -430,6 +430,18 @@
   </si>
   <si>
     <t xml:space="preserve">Find the sum of numbers between two numbers in a BBST – Using prefix sums</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minMaxGapBBST.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the min and max gap in a BBST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basicHeapOpers.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementing basic heap operations</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -786,8 +798,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C51" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C65" activeCellId="0" sqref="C65"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2059,17 +2071,47 @@
         <v>9</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B65" s="1" t="n">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B66" s="1" t="n">
         <v>64</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2699,13 +2741,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2719,16 +2761,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="152">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -442,6 +442,24 @@
   </si>
   <si>
     <t xml:space="preserve">Implementing basic heap operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coinExchMinNo.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum number of coins required to pay for n – DP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing65.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 65 with large number of inputs picked randomly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coinExchTotWay.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total number of ways we can pay for a value n</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -798,8 +816,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G67" activeCellId="0" sqref="G67"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2114,19 +2132,64 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B67" s="1" t="n">
         <v>65</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="1" t="n">
         <v>66</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="1" t="n">
         <v>67</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2741,13 +2804,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2761,16 +2824,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="166">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -460,6 +460,48 @@
   </si>
   <si>
     <t xml:space="preserve">Total number of ways we can pay for a value n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing67.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 67 with large number of inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knapsackProblem.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0-1 knapsack problem by dynamic programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing69.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 69 with large number of random inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">modiKnapProblem.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Modified knapsack problem by dynamic programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">subsetSumDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Subset sum problem by dynamic programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longestComSubSeq.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Subsequence by Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing73.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 73 with large number of random inputs</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -816,8 +858,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C49" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C69" activeCellId="0" sqref="C69"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2189,42 +2231,147 @@
         <v>9</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B70" s="1" t="n">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B71" s="1" t="n">
         <v>69</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B72" s="1" t="n">
         <v>70</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="1" t="n">
         <v>71</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F73" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G73" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B74" s="1" t="n">
         <v>72</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="1" t="n">
         <v>73</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="1" t="n">
         <v>74</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2804,13 +2951,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>148</v>
+        <v>162</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2824,16 +2971,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>150</v>
+        <v>164</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="170">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -502,6 +502,18 @@
   </si>
   <si>
     <t xml:space="preserve">Testing program 73 with large number of random inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longestPalinSeq.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Longest Common Palindromic Subsequence by Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">matrixChainDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matrix Chain Multiplication by Dynamic Programming</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -858,8 +870,8 @@
   </sheetPr>
   <dimension ref="B2:G179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B53" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C77" activeCellId="0" sqref="C77"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2374,14 +2386,44 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B77" s="1" t="n">
         <v>75</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F77" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="1" t="n">
         <v>76</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E78" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,13 +2993,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>36</v>
@@ -2971,16 +3013,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="java_programs" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
+    <sheet name="java_programs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,547 +21,541 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="174">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
   <si>
-    <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalRecur.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursive implementation of tree traversal algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalIter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative Implementation of tree traversals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levelTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a tree find it's level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trieArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array implementation of TRIE DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSubstrLRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isTreeLevel.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given levels of a tree - does tree exists?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heightTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find height of the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isHeightPossible.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given height array - does a tree exists for those heights?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestSubStrRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max length of the substring which repeats at least k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressedTrie.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement compressed trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findTime.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the time taken for a given input n - Checking the max computing power of the CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findMaxArraySize.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max array size computer can support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cntInvMerge.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of split inversions - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickFirstPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - First Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickLastPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Last Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickMedPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Median of first, middle and last as pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabin_karp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementaion of Rabin Karp - finding a substring in a given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn_pike.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation of Turn Piker Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Recursive Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA2.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using Memoization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA3.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using three variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA4.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using piano period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA5.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input binary - Using matrix multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA6.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRank.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a value of x find the rank of the input number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankSort.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankGNH.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankLV.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumExistTwoNArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there two numbers in an array such that ai + aj = (a given sum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffOrdInds.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffAtlstLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffWInLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSumSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum subsequence using the prefix sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxProSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subsequence in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findFirstMinRHS.c</t>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>treeTraversalRecur.c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Recursive implementation of tree traversal algorithms</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>treeTraversalIter.c</t>
+  </si>
+  <si>
+    <t>Iterative Implementation of tree traversals</t>
+  </si>
+  <si>
+    <t>levelTree.c</t>
+  </si>
+  <si>
+    <t>Given a tree find it's level</t>
+  </si>
+  <si>
+    <t>trieArray.c</t>
+  </si>
+  <si>
+    <t>Array implementation of TRIE DS</t>
+  </si>
+  <si>
+    <t>maxSubstrLRabin.c</t>
+  </si>
+  <si>
+    <t>Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
+  </si>
+  <si>
+    <t>isTreeLevel.c</t>
+  </si>
+  <si>
+    <t>Given levels of a tree - does tree exists?</t>
+  </si>
+  <si>
+    <t>heightTree.c</t>
+  </si>
+  <si>
+    <t>Find height of the tree</t>
+  </si>
+  <si>
+    <t>isHeightPossible.c</t>
+  </si>
+  <si>
+    <t>Given height array - does a tree exists for those heights?</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>longestSubStrRabin.c</t>
+  </si>
+  <si>
+    <t>Find the max length of the substring which repeats at least k times</t>
+  </si>
+  <si>
+    <t>compressedTrie.c</t>
+  </si>
+  <si>
+    <t>Implement compressed trie</t>
+  </si>
+  <si>
+    <t>findTime.c</t>
+  </si>
+  <si>
+    <t>Find the time taken for a given input n - Checking the max computing power of the CPU</t>
+  </si>
+  <si>
+    <t>findMaxArraySize.c</t>
+  </si>
+  <si>
+    <t>Find max array size computer can support</t>
+  </si>
+  <si>
+    <t>cntInvMerge.c</t>
+  </si>
+  <si>
+    <t>Count the number of split inversions - coursera</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>quickFirstPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - First Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickLastPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Last Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickMedPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Median of first, middle and last as pivot - coursera</t>
+  </si>
+  <si>
+    <t>rabin_karp.c</t>
+  </si>
+  <si>
+    <t>Implementaion of Rabin Karp - finding a substring in a given string</t>
+  </si>
+  <si>
+    <t>turn_pike.c</t>
+  </si>
+  <si>
+    <t>Implementation of Turn Piker Problem</t>
+  </si>
+  <si>
+    <t>fiboModA1.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Recursive Implementation</t>
+  </si>
+  <si>
+    <t>fiboModA2.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using Memoization</t>
+  </si>
+  <si>
+    <t>fiboModA3.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using three variables</t>
+  </si>
+  <si>
+    <t>fiboModA4.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using piano period</t>
+  </si>
+  <si>
+    <t>fiboModA5.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input binary - Using matrix multiplication</t>
+  </si>
+  <si>
+    <t>fiboModA6.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
+  </si>
+  <si>
+    <t>findRank.c</t>
+  </si>
+  <si>
+    <t>Given a value of x find the rank of the input number</t>
+  </si>
+  <si>
+    <t>findElRankSort.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r'</t>
+  </si>
+  <si>
+    <t>findElRankGNH.c</t>
+  </si>
+  <si>
+    <t>Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
+  </si>
+  <si>
+    <t>findElRankLV.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using Las Vegas</t>
+  </si>
+  <si>
+    <t>findElRankDeter.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+  <si>
+    <t>sumExistTwoNArray.c</t>
+  </si>
+  <si>
+    <t>Are there two numbers in an array such that ai + aj = (a given sum)</t>
+  </si>
+  <si>
+    <t>maxDiffOrdInds.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
+  </si>
+  <si>
+    <t>maxDiffAtlstLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
+  </si>
+  <si>
+    <t>maxDiffWInLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
+  </si>
+  <si>
+    <t>maxSumSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum sum subsequence using the prefix sum</t>
+  </si>
+  <si>
+    <t>maxProSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum product subsequence in an array</t>
+  </si>
+  <si>
+    <t>findFirstMinRHS.c</t>
   </si>
   <si>
     <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
   </si>
   <si>
-    <t xml:space="preserve">findMaxAreaRect.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a number array find the maximum area of the rectangle ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing33.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 33 with a large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing37.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 37 with a large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generateRandom.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a random number file with ~ 10^6 numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kMinN2LargeRand.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kMinN2LargeDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kClosestMedian.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k numbers with minimum absolute distance from the mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createPrintRandBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomly create and print a binary search tree in tree form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printBST.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for printBST function defined in 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delNodeBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertAVL.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert a node into the AVL tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unionFind.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement union find data structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delNodeAVL.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from AVL tree while maintaining the AVL property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printRBTree.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for printing a Red Black Tree with colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertRBTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert a node into a Red Black Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delRBTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from a RBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modAVL.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code for AVL insert and delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing53.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing header file for AVL insert and delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modRB.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for Red Black Tree insertion and deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing55.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing header file for Red Black Tree insertion and deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRankBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the rank of an element stored in a BBST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the element with a given rank stored in BBST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing29.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 29 with large number of inputs of different sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intervalTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build and print an interval tree with max variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isOverlapIntervalTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the given interval overlaps with the intervals in the interval tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumBWBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the sum of numbers between two numbers in a BBST – Using prefix sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minMaxGapBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the min and max gap in a BBST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basicHeapOpers.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing basic heap operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coinExchMinNo.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of coins required to pay for n – DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing65.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 65 with large number of inputs picked randomly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coinExchTotWay.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of ways we can pay for a value n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing67.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 67 with large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knapsackProblem.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-1 knapsack problem by dynamic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing69.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 69 with large number of random inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modiKnapProblem.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modified knapsack problem by dynamic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subsetSumDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset sum problem by dynamic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestComSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing73.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 73 with large number of random inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestPalinSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Palindromic Subsequence by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matrixChainDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KargerMinCut.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxFactors.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum factors formed by two numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geeks</t>
+    <t>findMaxAreaRect.c</t>
+  </si>
+  <si>
+    <t>Given a number array find the maximum area of the rectangle ()</t>
+  </si>
+  <si>
+    <t>testing33.c</t>
+  </si>
+  <si>
+    <t>Testing program 33 with a large number of inputs</t>
+  </si>
+  <si>
+    <t>testing37.c</t>
+  </si>
+  <si>
+    <t>Testing program 37 with a large number of inputs</t>
+  </si>
+  <si>
+    <t>generateRandom.c</t>
+  </si>
+  <si>
+    <t>Creating a random number file with ~ 10^6 numbers</t>
+  </si>
+  <si>
+    <t>kMinN2LargeRand.c</t>
+  </si>
+  <si>
+    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
+  </si>
+  <si>
+    <t>kMinN2LargeDeter.c</t>
+  </si>
+  <si>
+    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
+  </si>
+  <si>
+    <t>kClosestMedian.c</t>
+  </si>
+  <si>
+    <t>Find k numbers with minimum absolute distance from the mean</t>
+  </si>
+  <si>
+    <t>createPrintRandBST.c</t>
+  </si>
+  <si>
+    <t>Randomly create and print a binary search tree in tree form</t>
+  </si>
+  <si>
+    <t>printBST.h</t>
+  </si>
+  <si>
+    <t>Header file for printBST function defined in 44</t>
+  </si>
+  <si>
+    <t>delNodeBST.c</t>
+  </si>
+  <si>
+    <t>Delete a node from a BST</t>
+  </si>
+  <si>
+    <t>insertAVL.c</t>
+  </si>
+  <si>
+    <t>Insert a node into the AVL tree</t>
+  </si>
+  <si>
+    <t>unionFind.c</t>
+  </si>
+  <si>
+    <t>Implement union find data structure</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>delNodeAVL.c</t>
+  </si>
+  <si>
+    <t>Delete a node from AVL tree while maintaining the AVL property</t>
+  </si>
+  <si>
+    <t>printRBTree.h</t>
+  </si>
+  <si>
+    <t>Header file for printing a Red Black Tree with colors</t>
+  </si>
+  <si>
+    <t>insertRBTree.c</t>
+  </si>
+  <si>
+    <t>Insert a node into a Red Black Tree</t>
+  </si>
+  <si>
+    <t>delRBTree.c</t>
+  </si>
+  <si>
+    <t>Delete a node from a RBT</t>
+  </si>
+  <si>
+    <t>modAVL.h</t>
+  </si>
+  <si>
+    <t>Code for AVL insert and delete</t>
+  </si>
+  <si>
+    <t>testing53.c</t>
+  </si>
+  <si>
+    <t>Testing header file for AVL insert and delete</t>
+  </si>
+  <si>
+    <t>modRB.h</t>
+  </si>
+  <si>
+    <t>Header file for Red Black Tree insertion and deletion</t>
+  </si>
+  <si>
+    <t>testing55.c</t>
+  </si>
+  <si>
+    <t>Testing header file for Red Black Tree insertion and deletion</t>
+  </si>
+  <si>
+    <t>findRankBBST.c</t>
+  </si>
+  <si>
+    <t>Find the rank of an element stored in a BBST</t>
+  </si>
+  <si>
+    <t>findElRankBBST.c</t>
+  </si>
+  <si>
+    <t>Find the element with a given rank stored in BBST</t>
+  </si>
+  <si>
+    <t>testing29.c</t>
+  </si>
+  <si>
+    <t>Testing program 29 with large number of inputs of different sizes</t>
+  </si>
+  <si>
+    <t>intervalTree.c</t>
+  </si>
+  <si>
+    <t>Build and print an interval tree with max variable</t>
+  </si>
+  <si>
+    <t>isOverlapIntervalTree.c</t>
+  </si>
+  <si>
+    <t>Check if the given interval overlaps with the intervals in the interval tree</t>
+  </si>
+  <si>
+    <t>sumBWBBST.c</t>
+  </si>
+  <si>
+    <t>Find the sum of numbers between two numbers in a BBST – Using prefix sums</t>
+  </si>
+  <si>
+    <t>minMaxGapBBST.c</t>
+  </si>
+  <si>
+    <t>Find the min and max gap in a BBST</t>
+  </si>
+  <si>
+    <t>basicHeapOpers.c</t>
+  </si>
+  <si>
+    <t>Implementing basic heap operations</t>
+  </si>
+  <si>
+    <t>coinExchMinNo.c</t>
+  </si>
+  <si>
+    <t>Minimum number of coins required to pay for n – DP</t>
+  </si>
+  <si>
+    <t>testing65.c</t>
+  </si>
+  <si>
+    <t>Testing program 65 with large number of inputs picked randomly</t>
+  </si>
+  <si>
+    <t>coinExchTotWay.c</t>
+  </si>
+  <si>
+    <t>Total number of ways we can pay for a value n</t>
+  </si>
+  <si>
+    <t>testing67.c</t>
+  </si>
+  <si>
+    <t>Testing program 67 with large number of inputs</t>
+  </si>
+  <si>
+    <t>knapsackProblem.c</t>
+  </si>
+  <si>
+    <t>0-1 knapsack problem by dynamic programming</t>
+  </si>
+  <si>
+    <t>testing69.c</t>
+  </si>
+  <si>
+    <t>Testing program 69 with large number of random inputs</t>
+  </si>
+  <si>
+    <t>modiKnapProblem.c</t>
+  </si>
+  <si>
+    <t>Modified knapsack problem by dynamic programming</t>
+  </si>
+  <si>
+    <t>subsetSumDP.c</t>
+  </si>
+  <si>
+    <t>Subset sum problem by dynamic programming</t>
+  </si>
+  <si>
+    <t>longestComSubSeq.c</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>testing73.c</t>
+  </si>
+  <si>
+    <t>Testing program 73 with large number of random inputs</t>
+  </si>
+  <si>
+    <t>longestPalinSeq.c</t>
+  </si>
+  <si>
+    <t>Longest Common Palindromic Subsequence by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>matrixChainDP.c</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>KargerMinCut.java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+  </si>
+  <si>
+    <t>MaxFactors.java</t>
+  </si>
+  <si>
+    <t>Maximum factors formed by two numbers</t>
+  </si>
+  <si>
+    <t>Geeks</t>
+  </si>
+  <si>
+    <t>SO left</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>rodCuttingDP.c</t>
+  </si>
+  <si>
+    <t>Rod Cutting Problem by Dynamic Programming</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -572,7 +565,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -580,7 +573,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -615,14 +608,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -633,7 +626,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -642,7 +635,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -653,7 +646,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -663,129 +656,95 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -844,49 +803,341 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:G179" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="B2:G179"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H179" totalsRowShown="0">
+  <autoFilter ref="B2:H179">
+    <filterColumn colId="6"/>
+  </autoFilter>
+  <tableColumns count="7">
     <tableColumn id="1" name="Sr. No. "/>
     <tableColumn id="2" name="File Name"/>
     <tableColumn id="3" name="Language"/>
     <tableColumn id="4" name="Description"/>
     <tableColumn id="5" name="Source"/>
     <tableColumn id="6" name="Status"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:G179"/>
+  <dimension ref="A2:AMK179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B65" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B78" activeCellId="0" sqref="B78"/>
+    <sheetView tabSelected="1" topLeftCell="B76" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="91.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:8">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -905,9 +1156,12 @@
       <c r="G2" s="4" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="n">
+      <c r="H2" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -926,8 +1180,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="n">
+    <row r="4" spans="2:8">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -946,8 +1200,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="n">
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -966,8 +1220,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -986,8 +1240,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="n">
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1006,8 +1260,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="n">
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1026,8 +1280,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1046,8 +1300,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1066,8 +1320,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1086,8 +1340,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="n">
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1106,8 +1360,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="n">
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1126,8 +1380,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="n">
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1146,8 +1400,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="n">
+    <row r="15" spans="2:8">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1166,8 +1420,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="n">
+    <row r="16" spans="2:8">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1186,8 +1440,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="n">
+    <row r="17" spans="2:7">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1206,8 +1460,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="n">
+    <row r="18" spans="2:7">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1226,8 +1480,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="n">
+    <row r="19" spans="2:7">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1246,8 +1500,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="n">
+    <row r="20" spans="2:7">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1266,8 +1520,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="n">
+    <row r="21" spans="2:7">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1286,8 +1540,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="n">
+    <row r="22" spans="2:7">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1306,8 +1560,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="n">
+    <row r="23" spans="2:7">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1326,8 +1580,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="n">
+    <row r="24" spans="2:7">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1346,8 +1600,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="n">
+    <row r="25" spans="2:7">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1366,8 +1620,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="n">
+    <row r="26" spans="2:7">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1386,8 +1640,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="n">
+    <row r="27" spans="2:7">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1406,8 +1660,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="n">
+    <row r="28" spans="2:7">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1426,8 +1680,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="n">
+    <row r="29" spans="2:7">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1446,8 +1700,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="n">
+    <row r="30" spans="2:7">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1466,8 +1720,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="n">
+    <row r="31" spans="2:7">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1486,8 +1740,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="n">
+    <row r="32" spans="2:7">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1506,8 +1760,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="n">
+    <row r="33" spans="2:7">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1526,8 +1780,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="n">
+    <row r="34" spans="2:7">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1546,8 +1800,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="n">
+    <row r="35" spans="2:7">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1566,8 +1820,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="n">
+    <row r="36" spans="2:7">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1586,8 +1840,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="n">
+    <row r="37" spans="2:7">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1606,8 +1860,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="n">
+    <row r="38" spans="2:7">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1626,8 +1880,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="n">
+    <row r="39" spans="2:7">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1646,8 +1900,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="n">
+    <row r="40" spans="2:7">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1666,8 +1920,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="n">
+    <row r="41" spans="2:7">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1686,8 +1940,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="n">
+    <row r="42" spans="2:7">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1706,8 +1960,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="n">
+    <row r="43" spans="2:7">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1726,8 +1980,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="n">
+    <row r="44" spans="2:7">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1746,8 +2000,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="n">
+    <row r="45" spans="2:7">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1766,8 +2020,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="n">
+    <row r="46" spans="2:7">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1786,8 +2040,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="n">
+    <row r="47" spans="2:7">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1806,8 +2060,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="n">
+    <row r="48" spans="2:7">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1826,8 +2080,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="n">
+    <row r="49" spans="2:7">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1846,8 +2100,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="n">
+    <row r="50" spans="2:7">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1866,8 +2120,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="n">
+    <row r="51" spans="2:7">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1886,8 +2140,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="n">
+    <row r="52" spans="2:7">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1906,8 +2160,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="n">
+    <row r="53" spans="2:7">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -1926,8 +2180,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="n">
+    <row r="54" spans="2:7">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -1946,8 +2200,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="n">
+    <row r="55" spans="2:7">
+      <c r="B55" s="1">
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -1966,8 +2220,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="n">
+    <row r="56" spans="2:7">
+      <c r="B56" s="1">
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -1986,8 +2240,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="n">
+    <row r="57" spans="2:7">
+      <c r="B57" s="1">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2006,8 +2260,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="n">
+    <row r="58" spans="2:7">
+      <c r="B58" s="1">
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2026,8 +2280,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="n">
+    <row r="59" spans="2:7">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2046,8 +2300,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="n">
+    <row r="60" spans="2:7">
+      <c r="B60" s="1">
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2066,8 +2320,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="n">
+    <row r="61" spans="2:7">
+      <c r="B61" s="1">
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2086,8 +2340,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="n">
+    <row r="62" spans="2:7">
+      <c r="B62" s="1">
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2106,8 +2360,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="n">
+    <row r="63" spans="2:7">
+      <c r="B63" s="1">
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2126,8 +2380,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="n">
+    <row r="64" spans="2:7">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2146,8 +2400,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="n">
+    <row r="65" spans="2:8">
+      <c r="B65" s="1">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2166,8 +2420,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="n">
+    <row r="66" spans="2:8">
+      <c r="B66" s="1">
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2186,8 +2440,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="n">
+    <row r="67" spans="2:8">
+      <c r="B67" s="1">
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2206,8 +2460,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="n">
+    <row r="68" spans="2:8">
+      <c r="B68" s="1">
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2226,8 +2480,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="n">
+    <row r="69" spans="2:8">
+      <c r="B69" s="1">
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2246,8 +2500,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="n">
+    <row r="70" spans="2:8">
+      <c r="B70" s="1">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2266,8 +2520,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
+    <row r="71" spans="2:8">
+      <c r="B71" s="1">
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2286,8 +2540,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="n">
+    <row r="72" spans="2:8">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2306,8 +2560,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="n">
+    <row r="73" spans="2:8">
+      <c r="B73" s="1">
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2326,8 +2580,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="n">
+    <row r="74" spans="2:8">
+      <c r="B74" s="1">
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2346,8 +2600,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="n">
+    <row r="75" spans="2:8">
+      <c r="B75" s="1">
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2366,8 +2620,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="n">
+    <row r="76" spans="2:8">
+      <c r="B76" s="1">
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2386,8 +2640,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="n">
+    <row r="77" spans="2:8">
+      <c r="B77" s="1">
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2405,9 +2659,12 @@
       <c r="G77" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="n">
+      <c r="H77" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8">
+      <c r="B78" s="1">
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2423,523 +2680,536 @@
         <v>9</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8">
+      <c r="B79" s="1">
         <v>77</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="n">
+      <c r="C79" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="1">
         <v>78</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="n">
+    <row r="81" spans="2:2">
+      <c r="B81" s="1">
         <v>79</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="n">
+    <row r="82" spans="2:2">
+      <c r="B82" s="1">
         <v>80</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="n">
+    <row r="83" spans="2:2">
+      <c r="B83" s="1">
         <v>81</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="n">
+    <row r="84" spans="2:2">
+      <c r="B84" s="1">
         <v>82</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="n">
+    <row r="85" spans="2:2">
+      <c r="B85" s="1">
         <v>83</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="n">
+    <row r="86" spans="2:2">
+      <c r="B86" s="1">
         <v>84</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="n">
+    <row r="87" spans="2:2">
+      <c r="B87" s="1">
         <v>85</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="n">
+    <row r="88" spans="2:2">
+      <c r="B88" s="1">
         <v>86</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="n">
+    <row r="89" spans="2:2">
+      <c r="B89" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="n">
+    <row r="90" spans="2:2">
+      <c r="B90" s="1">
         <v>88</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="n">
+    <row r="91" spans="2:2">
+      <c r="B91" s="1">
         <v>89</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="n">
+    <row r="92" spans="2:2">
+      <c r="B92" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="n">
+    <row r="93" spans="2:2">
+      <c r="B93" s="1">
         <v>91</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="n">
+    <row r="94" spans="2:2">
+      <c r="B94" s="1">
         <v>92</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="n">
+    <row r="95" spans="2:2">
+      <c r="B95" s="1">
         <v>93</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="n">
+    <row r="96" spans="2:2">
+      <c r="B96" s="1">
         <v>94</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="n">
+    <row r="97" spans="2:2">
+      <c r="B97" s="1">
         <v>95</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="n">
+    <row r="98" spans="2:2">
+      <c r="B98" s="1">
         <v>96</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="n">
+    <row r="99" spans="2:2">
+      <c r="B99" s="1">
         <v>97</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="n">
+    <row r="100" spans="2:2">
+      <c r="B100" s="1">
         <v>98</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="n">
+    <row r="101" spans="2:2">
+      <c r="B101" s="1">
         <v>99</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="n">
+    <row r="102" spans="2:2">
+      <c r="B102" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="n">
+    <row r="103" spans="2:2">
+      <c r="B103" s="1">
         <v>101</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="n">
+    <row r="104" spans="2:2">
+      <c r="B104" s="1">
         <v>102</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="n">
+    <row r="105" spans="2:2">
+      <c r="B105" s="1">
         <v>103</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="n">
+    <row r="106" spans="2:2">
+      <c r="B106" s="1">
         <v>104</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="n">
+    <row r="107" spans="2:2">
+      <c r="B107" s="1">
         <v>105</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="n">
+    <row r="108" spans="2:2">
+      <c r="B108" s="1">
         <v>106</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="n">
+    <row r="109" spans="2:2">
+      <c r="B109" s="1">
         <v>107</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="n">
+    <row r="110" spans="2:2">
+      <c r="B110" s="1">
         <v>108</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="n">
+    <row r="111" spans="2:2">
+      <c r="B111" s="1">
         <v>109</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="n">
+    <row r="112" spans="2:2">
+      <c r="B112" s="1">
         <v>110</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="n">
+    <row r="113" spans="2:2">
+      <c r="B113" s="1">
         <v>111</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="n">
+    <row r="114" spans="2:2">
+      <c r="B114" s="1">
         <v>112</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="n">
+    <row r="115" spans="2:2">
+      <c r="B115" s="1">
         <v>113</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1" t="n">
+    <row r="116" spans="2:2">
+      <c r="B116" s="1">
         <v>114</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="n">
+    <row r="117" spans="2:2">
+      <c r="B117" s="1">
         <v>115</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="1" t="n">
+    <row r="118" spans="2:2">
+      <c r="B118" s="1">
         <v>116</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="n">
+    <row r="119" spans="2:2">
+      <c r="B119" s="1">
         <v>117</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="n">
+    <row r="120" spans="2:2">
+      <c r="B120" s="1">
         <v>118</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="n">
+    <row r="121" spans="2:2">
+      <c r="B121" s="1">
         <v>119</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1" t="n">
+    <row r="122" spans="2:2">
+      <c r="B122" s="1">
         <v>120</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="n">
+    <row r="123" spans="2:2">
+      <c r="B123" s="1">
         <v>121</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="n">
+    <row r="124" spans="2:2">
+      <c r="B124" s="1">
         <v>122</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="n">
+    <row r="125" spans="2:2">
+      <c r="B125" s="1">
         <v>123</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="n">
+    <row r="126" spans="2:2">
+      <c r="B126" s="1">
         <v>124</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="n">
+    <row r="127" spans="2:2">
+      <c r="B127" s="1">
         <v>125</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1" t="n">
+    <row r="128" spans="2:2">
+      <c r="B128" s="1">
         <v>126</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="n">
+    <row r="129" spans="2:2">
+      <c r="B129" s="1">
         <v>127</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1" t="n">
+    <row r="130" spans="2:2">
+      <c r="B130" s="1">
         <v>128</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="n">
+    <row r="131" spans="2:2">
+      <c r="B131" s="1">
         <v>129</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="n">
+    <row r="132" spans="2:2">
+      <c r="B132" s="1">
         <v>130</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="n">
+    <row r="133" spans="2:2">
+      <c r="B133" s="1">
         <v>131</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="1" t="n">
+    <row r="134" spans="2:2">
+      <c r="B134" s="1">
         <v>132</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="1" t="n">
+    <row r="135" spans="2:2">
+      <c r="B135" s="1">
         <v>133</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="1" t="n">
+    <row r="136" spans="2:2">
+      <c r="B136" s="1">
         <v>134</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="1" t="n">
+    <row r="137" spans="2:2">
+      <c r="B137" s="1">
         <v>135</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="1" t="n">
+    <row r="138" spans="2:2">
+      <c r="B138" s="1">
         <v>136</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="n">
+    <row r="139" spans="2:2">
+      <c r="B139" s="1">
         <v>137</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="1" t="n">
+    <row r="140" spans="2:2">
+      <c r="B140" s="1">
         <v>138</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="1" t="n">
+    <row r="141" spans="2:2">
+      <c r="B141" s="1">
         <v>139</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="1" t="n">
+    <row r="142" spans="2:2">
+      <c r="B142" s="1">
         <v>140</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="1" t="n">
+    <row r="143" spans="2:2">
+      <c r="B143" s="1">
         <v>141</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="1" t="n">
+    <row r="144" spans="2:2">
+      <c r="B144" s="1">
         <v>142</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="1" t="n">
+    <row r="145" spans="2:2">
+      <c r="B145" s="1">
         <v>143</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="n">
+    <row r="146" spans="2:2">
+      <c r="B146" s="1">
         <v>144</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="1" t="n">
+    <row r="147" spans="2:2">
+      <c r="B147" s="1">
         <v>145</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="1" t="n">
+    <row r="148" spans="2:2">
+      <c r="B148" s="1">
         <v>146</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="1" t="n">
+    <row r="149" spans="2:2">
+      <c r="B149" s="1">
         <v>147</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="1" t="n">
+    <row r="150" spans="2:2">
+      <c r="B150" s="1">
         <v>148</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="n">
+    <row r="151" spans="2:2">
+      <c r="B151" s="1">
         <v>149</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="1" t="n">
+    <row r="152" spans="2:2">
+      <c r="B152" s="1">
         <v>150</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1" t="n">
+    <row r="153" spans="2:2">
+      <c r="B153" s="1">
         <v>151</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="1" t="n">
+    <row r="154" spans="2:2">
+      <c r="B154" s="1">
         <v>152</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1" t="n">
+    <row r="155" spans="2:2">
+      <c r="B155" s="1">
         <v>153</v>
       </c>
     </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="1" t="n">
+    <row r="156" spans="2:2">
+      <c r="B156" s="1">
         <v>154</v>
       </c>
     </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1" t="n">
+    <row r="157" spans="2:2">
+      <c r="B157" s="1">
         <v>155</v>
       </c>
     </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="1" t="n">
+    <row r="158" spans="2:2">
+      <c r="B158" s="1">
         <v>156</v>
       </c>
     </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1" t="n">
+    <row r="159" spans="2:2">
+      <c r="B159" s="1">
         <v>157</v>
       </c>
     </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="1" t="n">
+    <row r="160" spans="2:2">
+      <c r="B160" s="1">
         <v>158</v>
       </c>
     </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="1" t="n">
+    <row r="161" spans="2:2">
+      <c r="B161" s="1">
         <v>159</v>
       </c>
     </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="1" t="n">
+    <row r="162" spans="2:2">
+      <c r="B162" s="1">
         <v>160</v>
       </c>
     </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="1" t="n">
+    <row r="163" spans="2:2">
+      <c r="B163" s="1">
         <v>161</v>
       </c>
     </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="1" t="n">
+    <row r="164" spans="2:2">
+      <c r="B164" s="1">
         <v>162</v>
       </c>
     </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="n">
+    <row r="165" spans="2:2">
+      <c r="B165" s="1">
         <v>163</v>
       </c>
     </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="1" t="n">
+    <row r="166" spans="2:2">
+      <c r="B166" s="1">
         <v>164</v>
       </c>
     </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="1" t="n">
+    <row r="167" spans="2:2">
+      <c r="B167" s="1">
         <v>165</v>
       </c>
     </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="1" t="n">
+    <row r="168" spans="2:2">
+      <c r="B168" s="1">
         <v>166</v>
       </c>
     </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="1" t="n">
+    <row r="169" spans="2:2">
+      <c r="B169" s="1">
         <v>167</v>
       </c>
     </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="1" t="n">
+    <row r="170" spans="2:2">
+      <c r="B170" s="1">
         <v>168</v>
       </c>
     </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="1" t="n">
+    <row r="171" spans="2:2">
+      <c r="B171" s="1">
         <v>169</v>
       </c>
     </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="1" t="n">
+    <row r="172" spans="2:2">
+      <c r="B172" s="1">
         <v>170</v>
       </c>
     </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="1" t="n">
+    <row r="173" spans="2:2">
+      <c r="B173" s="1">
         <v>171</v>
       </c>
     </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="1" t="n">
+    <row r="174" spans="2:2">
+      <c r="B174" s="1">
         <v>172</v>
       </c>
     </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="1" t="n">
+    <row r="175" spans="2:2">
+      <c r="B175" s="1">
         <v>173</v>
       </c>
     </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="1" t="n">
+    <row r="176" spans="2:2">
+      <c r="B176" s="1">
         <v>174</v>
       </c>
     </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="1" t="n">
+    <row r="177" spans="2:2">
+      <c r="B177" s="1">
         <v>175</v>
       </c>
     </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="1" t="n">
+    <row r="178" spans="2:2">
+      <c r="B178" s="1">
         <v>176</v>
       </c>
     </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="1" t="n">
+    <row r="179" spans="2:2">
+      <c r="B179" s="1">
         <v>177</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
@@ -2947,28 +3217,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:G9"/>
+  <dimension ref="A2:AMK6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="85.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="8" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15" style="8" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:7" ht="15.75">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -2988,8 +3255,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="14" t="n">
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3008,8 +3275,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="18" t="n">
+    <row r="4" spans="2:7" ht="15.75">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -3026,7 +3293,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:7" ht="15.75">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3034,7 +3301,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3042,40 +3309,24 @@
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="8" width="8.57"/>
+    <col min="1" max="1025" width="8.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="196">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -532,6 +532,66 @@
   </si>
   <si>
     <t xml:space="preserve">Egg Dropping problem by Dynamic Programming</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BT left</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longestIncSubSeqDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest increasing subsequence in a given sequence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">longestIncSeqReArrDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the longest increasing sequence after reordering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">check logic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxRectSubMatrixDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the max sum rectangular submatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing81.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 81 with random matrices of different sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxSqSubMatrixDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the max sum square submatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing83.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 83 with random matrices of different sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxkCkSubMatrixDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the max k dim square submatrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing85.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing program 85 with random matrices of different sizes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxRectBinSubMatDP.c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find max rectangular binary sub matrix</t>
   </si>
   <si>
     <t xml:space="preserve">KargerMinCut.java</t>
@@ -889,8 +949,8 @@
   </sheetPr>
   <dimension ref="B2:H179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E76" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G81" activeCellId="0" sqref="G81"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2491,52 +2551,193 @@
         <v>10</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>11</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B81" s="1" t="n">
         <v>79</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C81" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B82" s="1" t="n">
         <v>80</v>
       </c>
-    </row>
-    <row r="83" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C82" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F82" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B83" s="1" t="n">
         <v>81</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C83" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B84" s="1" t="n">
         <v>82</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C84" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F84" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="1" t="n">
         <v>83</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C85" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B86" s="1" t="n">
         <v>84</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C86" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B87" s="1" t="n">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C87" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B88" s="1" t="n">
         <v>86</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C88" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B89" s="1" t="n">
         <v>87</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3051,13 +3252,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>37</v>
@@ -3071,16 +3272,16 @@
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="G4" s="21"/>
     </row>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="algo_programs" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="java_programs" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="algo_programs" sheetId="1" r:id="rId1"/>
+    <sheet name="java_programs" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,625 +21,643 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="208">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
   <si>
-    <t xml:space="preserve">File Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Status</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Column1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalRecur.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursive implementation of tree traversal algorithms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Class</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Completed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">treeTraversalIter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iterative Implementation of tree traversals</t>
-  </si>
-  <si>
-    <t xml:space="preserve">levelTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a tree find it's level</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trieArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Array implementation of TRIE DS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSubstrLRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isTreeLevel.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given levels of a tree - does tree exists?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">heightTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find height of the tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isHeightPossible.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given height array - does a tree exists for those heights?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Incomplete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestSubStrRabin.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max length of the substring which repeats at least k times</t>
-  </si>
-  <si>
-    <t xml:space="preserve">compressedTrie.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement compressed trie</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findTime.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the time taken for a given input n - Checking the max computing power of the CPU</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findMaxArraySize.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max array size computer can support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cntInvMerge.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count the number of split inversions - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickFirstPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - First Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickLastPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Last Element as Pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">quickMedPivot.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quick Sort - Median of first, middle and last as pivot - coursera</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rabin_karp.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementaion of Rabin Karp - finding a substring in a given string</t>
-  </si>
-  <si>
-    <t xml:space="preserve">turn_pike.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementation of Turn Piker Problem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA1.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Recursive Implementation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA2.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using Memoization</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA3.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using three variables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA4.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Using piano period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA5.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input binary - Using matrix multiplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fiboModA6.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRank.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a value of x find the rank of the input number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankSort.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankGNH.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankLV.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumExistTwoNArray.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Are there two numbers in an array such that ai + aj = (a given sum)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffOrdInds.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffAtlstLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxDiffWInLDist.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSumSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum sum subsequence using the prefix sum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxProSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum product subsequence in an array</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findFirstMinRHS.c</t>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>treeTraversalRecur.c</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>Recursive implementation of tree traversal algorithms</t>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>treeTraversalIter.c</t>
+  </si>
+  <si>
+    <t>Iterative Implementation of tree traversals</t>
+  </si>
+  <si>
+    <t>levelTree.c</t>
+  </si>
+  <si>
+    <t>Given a tree find it's level</t>
+  </si>
+  <si>
+    <t>trieArray.c</t>
+  </si>
+  <si>
+    <t>Array implementation of TRIE DS</t>
+  </si>
+  <si>
+    <t>maxSubstrLRabin.c</t>
+  </si>
+  <si>
+    <t>Displays the first substring of length l_len which occurs max number of times - Rabin Karp</t>
+  </si>
+  <si>
+    <t>isTreeLevel.c</t>
+  </si>
+  <si>
+    <t>Given levels of a tree - does tree exists?</t>
+  </si>
+  <si>
+    <t>heightTree.c</t>
+  </si>
+  <si>
+    <t>Find height of the tree</t>
+  </si>
+  <si>
+    <t>isHeightPossible.c</t>
+  </si>
+  <si>
+    <t>Given height array - does a tree exists for those heights?</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>longestSubStrRabin.c</t>
+  </si>
+  <si>
+    <t>Find the max length of the substring which repeats at least k times</t>
+  </si>
+  <si>
+    <t>compressedTrie.c</t>
+  </si>
+  <si>
+    <t>Implement compressed trie</t>
+  </si>
+  <si>
+    <t>findTime.c</t>
+  </si>
+  <si>
+    <t>Find the time taken for a given input n - Checking the max computing power of the CPU</t>
+  </si>
+  <si>
+    <t>findMaxArraySize.c</t>
+  </si>
+  <si>
+    <t>Find max array size computer can support</t>
+  </si>
+  <si>
+    <t>cntInvMerge.c</t>
+  </si>
+  <si>
+    <t>Count the number of split inversions - coursera</t>
+  </si>
+  <si>
+    <t>Coursera</t>
+  </si>
+  <si>
+    <t>quickFirstPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - First Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickLastPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Last Element as Pivot - coursera</t>
+  </si>
+  <si>
+    <t>quickMedPivot.c</t>
+  </si>
+  <si>
+    <t>Quick Sort - Median of first, middle and last as pivot - coursera</t>
+  </si>
+  <si>
+    <t>rabin_karp.c</t>
+  </si>
+  <si>
+    <t>Implementaion of Rabin Karp - finding a substring in a given string</t>
+  </si>
+  <si>
+    <t>turn_pike.c</t>
+  </si>
+  <si>
+    <t>Implementation of Turn Piker Problem</t>
+  </si>
+  <si>
+    <t>fiboModA1.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Recursive Implementation</t>
+  </si>
+  <si>
+    <t>fiboModA2.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using Memoization</t>
+  </si>
+  <si>
+    <t>fiboModA3.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using three variables</t>
+  </si>
+  <si>
+    <t>fiboModA4.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Using piano period</t>
+  </si>
+  <si>
+    <t>fiboModA5.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input binary - Using matrix multiplication</t>
+  </si>
+  <si>
+    <t>fiboModA6.c</t>
+  </si>
+  <si>
+    <t>Fibonacci Mod - Input decimal - Using matrix mulitplication</t>
+  </si>
+  <si>
+    <t>findRank.c</t>
+  </si>
+  <si>
+    <t>Given a value of x find the rank of the input number</t>
+  </si>
+  <si>
+    <t>findElRankSort.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r'</t>
+  </si>
+  <si>
+    <t>findElRankGNH.c</t>
+  </si>
+  <si>
+    <t>Find an element whose rank is greater than n/2 - Using Monte Carlo</t>
+  </si>
+  <si>
+    <t>findElRankLV.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using Las Vegas</t>
+  </si>
+  <si>
+    <t>findElRankDeter.c</t>
+  </si>
+  <si>
+    <t>Find element with given rank 'r' - Using a deterministic procedure - Pivot choose wisely</t>
+  </si>
+  <si>
+    <t>sumExistTwoNArray.c</t>
+  </si>
+  <si>
+    <t>Are there two numbers in an array such that ai + aj = (a given sum)</t>
+  </si>
+  <si>
+    <t>maxDiffOrdInds.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt; i – Given input sequence not sorted</t>
+  </si>
+  <si>
+    <t>maxDiffAtlstLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j &gt;= (i + l) – Wait atleast for ‘l’ days – I/P not sorted – 1 &lt;= l &lt;= n – 1</t>
+  </si>
+  <si>
+    <t>maxDiffWInLDist.c</t>
+  </si>
+  <si>
+    <t>Find max(aj – ai) where j – l &lt;= i &lt; j – Sell stocks within ‘l’ days – I/P not sorted</t>
+  </si>
+  <si>
+    <t>maxSumSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum sum subsequence using the prefix sum</t>
+  </si>
+  <si>
+    <t>maxProSubSeq.c</t>
+  </si>
+  <si>
+    <t>Maximum product subsequence in an array</t>
+  </si>
+  <si>
+    <t>findFirstMinRHS.c</t>
   </si>
   <si>
     <t xml:space="preserve">Find the first number aj smaller than ai such that j &gt; i i.e. aj is on the right – For all numbers </t>
   </si>
   <si>
-    <t xml:space="preserve">findMaxAreaRect.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Given a number array find the maximum area of the rectangle ()</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing33.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 33 with a large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing37.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 37 with a large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">generateRandom.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Creating a random number file with ~ 10^6 numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kMinN2LargeRand.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kMinN2LargeDeter.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kClosestMedian.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find k numbers with minimum absolute distance from the mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">createPrintRandBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Randomly create and print a binary search tree in tree form</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printBST.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for printBST function defined in 44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delNodeBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from a BST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertAVL.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert a node into the AVL tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">unionFind.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implement union find data structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delNodeAVL.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from AVL tree while maintaining the AVL property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">printRBTree.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for printing a Red Black Tree with colors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insertRBTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insert a node into a Red Black Tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">delRBTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Delete a node from a RBT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modAVL.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Code for AVL insert and delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing53.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing header file for AVL insert and delete</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modRB.h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Header file for Red Black Tree insertion and deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing55.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing header file for Red Black Tree insertion and deletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findRankBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the rank of an element stored in a BBST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">findElRankBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the element with a given rank stored in BBST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing29.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 29 with large number of inputs of different sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">intervalTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Build and print an interval tree with max variable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">isOverlapIntervalTree.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Check if the given interval overlaps with the intervals in the interval tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sumBWBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the sum of numbers between two numbers in a BBST – Using prefix sums</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minMaxGapBBST.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the min and max gap in a BBST</t>
-  </si>
-  <si>
-    <t xml:space="preserve">basicHeapOpers.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementing basic heap operations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coinExchMinNo.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum number of coins required to pay for n – DP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing65.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 65 with large number of inputs picked randomly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">coinExchTotWay.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Total number of ways we can pay for a value n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing67.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 67 with large number of inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">knapsackProblem.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0-1 knapsack problem by dynamic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing69.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 69 with large number of random inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">modiKnapProblem.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Modified knapsack problem by dynamic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">subsetSumDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Subset sum problem by dynamic programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestComSubSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Subsequence by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing73.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 73 with large number of random inputs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestPalinSeq.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Longest Common Palindromic Subsequence by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SO left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">matrixChainDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matrix Chain Multiplication by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rodCuttingDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rod Cutting Problem by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eggDroppingDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Egg Dropping problem by Dynamic Programming</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BT left</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestIncSubSeqDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest increasing subsequence in a given sequence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">longestIncSeqReArrDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the longest increasing sequence after reordering</t>
-  </si>
-  <si>
-    <t xml:space="preserve">check logic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxRectSubMatrixDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max sum rectangular submatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing81.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 81 with random matrices of different sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxSqSubMatrixDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max sum square submatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing83.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 83 with random matrices of different sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxkCkSubMatrixDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find the max k dim square submatrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">testing85.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Testing program 85 with random matrices of different sizes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">maxRectBinSubMatDP.c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Find max rectangular binary sub matrix</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KargerMinCut.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MaxFactors.java</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maximum factors formed by two numbers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Geeks</t>
+    <t>findMaxAreaRect.c</t>
+  </si>
+  <si>
+    <t>Given a number array find the maximum area of the rectangle ()</t>
+  </si>
+  <si>
+    <t>testing33.c</t>
+  </si>
+  <si>
+    <t>Testing program 33 with a large number of inputs</t>
+  </si>
+  <si>
+    <t>testing37.c</t>
+  </si>
+  <si>
+    <t>Testing program 37 with a large number of inputs</t>
+  </si>
+  <si>
+    <t>generateRandom.c</t>
+  </si>
+  <si>
+    <t>Creating a random number file with ~ 10^6 numbers</t>
+  </si>
+  <si>
+    <t>kMinN2LargeRand.c</t>
+  </si>
+  <si>
+    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using Las Vegas</t>
+  </si>
+  <si>
+    <t>kMinN2LargeDeter.c</t>
+  </si>
+  <si>
+    <t>Find k minimum numbers in a large input n -&gt; k ~ 10^5 &amp; n ~ 10^9 – Using deterministic algo</t>
+  </si>
+  <si>
+    <t>kClosestMedian.c</t>
+  </si>
+  <si>
+    <t>Find k numbers with minimum absolute distance from the mean</t>
+  </si>
+  <si>
+    <t>createPrintRandBST.c</t>
+  </si>
+  <si>
+    <t>Randomly create and print a binary search tree in tree form</t>
+  </si>
+  <si>
+    <t>printBST.h</t>
+  </si>
+  <si>
+    <t>Header file for printBST function defined in 44</t>
+  </si>
+  <si>
+    <t>delNodeBST.c</t>
+  </si>
+  <si>
+    <t>Delete a node from a BST</t>
+  </si>
+  <si>
+    <t>insertAVL.c</t>
+  </si>
+  <si>
+    <t>Insert a node into the AVL tree</t>
+  </si>
+  <si>
+    <t>unionFind.c</t>
+  </si>
+  <si>
+    <t>Implement union find data structure</t>
+  </si>
+  <si>
+    <t>Self</t>
+  </si>
+  <si>
+    <t>delNodeAVL.c</t>
+  </si>
+  <si>
+    <t>Delete a node from AVL tree while maintaining the AVL property</t>
+  </si>
+  <si>
+    <t>printRBTree.h</t>
+  </si>
+  <si>
+    <t>Header file for printing a Red Black Tree with colors</t>
+  </si>
+  <si>
+    <t>insertRBTree.c</t>
+  </si>
+  <si>
+    <t>Insert a node into a Red Black Tree</t>
+  </si>
+  <si>
+    <t>delRBTree.c</t>
+  </si>
+  <si>
+    <t>Delete a node from a RBT</t>
+  </si>
+  <si>
+    <t>modAVL.h</t>
+  </si>
+  <si>
+    <t>Code for AVL insert and delete</t>
+  </si>
+  <si>
+    <t>testing53.c</t>
+  </si>
+  <si>
+    <t>Testing header file for AVL insert and delete</t>
+  </si>
+  <si>
+    <t>modRB.h</t>
+  </si>
+  <si>
+    <t>Header file for Red Black Tree insertion and deletion</t>
+  </si>
+  <si>
+    <t>testing55.c</t>
+  </si>
+  <si>
+    <t>Testing header file for Red Black Tree insertion and deletion</t>
+  </si>
+  <si>
+    <t>findRankBBST.c</t>
+  </si>
+  <si>
+    <t>Find the rank of an element stored in a BBST</t>
+  </si>
+  <si>
+    <t>findElRankBBST.c</t>
+  </si>
+  <si>
+    <t>Find the element with a given rank stored in BBST</t>
+  </si>
+  <si>
+    <t>testing29.c</t>
+  </si>
+  <si>
+    <t>Testing program 29 with large number of inputs of different sizes</t>
+  </si>
+  <si>
+    <t>intervalTree.c</t>
+  </si>
+  <si>
+    <t>Build and print an interval tree with max variable</t>
+  </si>
+  <si>
+    <t>isOverlapIntervalTree.c</t>
+  </si>
+  <si>
+    <t>Check if the given interval overlaps with the intervals in the interval tree</t>
+  </si>
+  <si>
+    <t>sumBWBBST.c</t>
+  </si>
+  <si>
+    <t>Find the sum of numbers between two numbers in a BBST – Using prefix sums</t>
+  </si>
+  <si>
+    <t>minMaxGapBBST.c</t>
+  </si>
+  <si>
+    <t>Find the min and max gap in a BBST</t>
+  </si>
+  <si>
+    <t>basicHeapOpers.c</t>
+  </si>
+  <si>
+    <t>Implementing basic heap operations</t>
+  </si>
+  <si>
+    <t>coinExchMinNo.c</t>
+  </si>
+  <si>
+    <t>Minimum number of coins required to pay for n – DP</t>
+  </si>
+  <si>
+    <t>testing65.c</t>
+  </si>
+  <si>
+    <t>Testing program 65 with large number of inputs picked randomly</t>
+  </si>
+  <si>
+    <t>coinExchTotWay.c</t>
+  </si>
+  <si>
+    <t>Total number of ways we can pay for a value n</t>
+  </si>
+  <si>
+    <t>testing67.c</t>
+  </si>
+  <si>
+    <t>Testing program 67 with large number of inputs</t>
+  </si>
+  <si>
+    <t>knapsackProblem.c</t>
+  </si>
+  <si>
+    <t>0-1 knapsack problem by dynamic programming</t>
+  </si>
+  <si>
+    <t>testing69.c</t>
+  </si>
+  <si>
+    <t>Testing program 69 with large number of random inputs</t>
+  </si>
+  <si>
+    <t>modiKnapProblem.c</t>
+  </si>
+  <si>
+    <t>Modified knapsack problem by dynamic programming</t>
+  </si>
+  <si>
+    <t>subsetSumDP.c</t>
+  </si>
+  <si>
+    <t>Subset sum problem by dynamic programming</t>
+  </si>
+  <si>
+    <t>longestComSubSeq.c</t>
+  </si>
+  <si>
+    <t>Longest Common Subsequence by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>testing73.c</t>
+  </si>
+  <si>
+    <t>Testing program 73 with large number of random inputs</t>
+  </si>
+  <si>
+    <t>longestPalinSeq.c</t>
+  </si>
+  <si>
+    <t>Longest Common Palindromic Subsequence by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>SO left</t>
+  </si>
+  <si>
+    <t>matrixChainDP.c</t>
+  </si>
+  <si>
+    <t>Matrix Chain Multiplication by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>rodCuttingDP.c</t>
+  </si>
+  <si>
+    <t>Rod Cutting Problem by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>eggDroppingDP.c</t>
+  </si>
+  <si>
+    <t>Egg Dropping problem by Dynamic Programming</t>
+  </si>
+  <si>
+    <t>BT left</t>
+  </si>
+  <si>
+    <t>longestIncSubSeqDP.c</t>
+  </si>
+  <si>
+    <t>Find the longest increasing subsequence in a given sequence</t>
+  </si>
+  <si>
+    <t>longestIncSeqReArrDP.c</t>
+  </si>
+  <si>
+    <t>Find the longest increasing sequence after reordering</t>
+  </si>
+  <si>
+    <t>check logic</t>
+  </si>
+  <si>
+    <t>maxRectSubMatrixDP.c</t>
+  </si>
+  <si>
+    <t>Find the max sum rectangular submatrix</t>
+  </si>
+  <si>
+    <t>testing81.c</t>
+  </si>
+  <si>
+    <t>Testing program 81 with random matrices of different sizes</t>
+  </si>
+  <si>
+    <t>maxSqSubMatrixDP.c</t>
+  </si>
+  <si>
+    <t>Find the max sum square submatrix</t>
+  </si>
+  <si>
+    <t>testing83.c</t>
+  </si>
+  <si>
+    <t>Testing program 83 with random matrices of different sizes</t>
+  </si>
+  <si>
+    <t>maxkCkSubMatrixDP.c</t>
+  </si>
+  <si>
+    <t>Find the max k dim square submatrix</t>
+  </si>
+  <si>
+    <t>testing85.c</t>
+  </si>
+  <si>
+    <t>Testing program 85 with random matrices of different sizes</t>
+  </si>
+  <si>
+    <t>maxRectBinSubMatDP.c</t>
+  </si>
+  <si>
+    <t>Find max rectangular binary sub matrix</t>
+  </si>
+  <si>
+    <t>KargerMinCut.java</t>
+  </si>
+  <si>
+    <t>Java</t>
+  </si>
+  <si>
+    <t>Coursera - Stanford - Karger Min Cut Implementation - See description file for details</t>
+  </si>
+  <si>
+    <t>MaxFactors.java</t>
+  </si>
+  <si>
+    <t>Maximum factors formed by two numbers</t>
+  </si>
+  <si>
+    <t>Geeks</t>
+  </si>
+  <si>
+    <t>warshallAlgoGraphs</t>
+  </si>
+  <si>
+    <t>Warshall's Algorithm for Transitive Closure</t>
+  </si>
+  <si>
+    <t>graphRepresentation</t>
+  </si>
+  <si>
+    <t>Graphs representation common classes</t>
+  </si>
+  <si>
+    <t>floydWarshallGraphs</t>
+  </si>
+  <si>
+    <t>bellmanFordGraphs</t>
+  </si>
+  <si>
+    <t>Floyd Warshalls Algorithm for APSP with path printing &amp; number of shortest paths</t>
+  </si>
+  <si>
+    <t>Bellman Ford Algorithm for SSSP with path printing &amp; number of shortest paths</t>
+  </si>
+  <si>
+    <t>no sp left</t>
+  </si>
+  <si>
+    <t>bfsGraphs</t>
+  </si>
+  <si>
+    <t>BFS algorithm</t>
+  </si>
+  <si>
+    <t>no sp no test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -650,7 +667,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -658,7 +675,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -693,14 +710,14 @@
     </fill>
   </fills>
   <borders count="5">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -711,7 +728,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -720,7 +737,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right style="thin">
         <color rgb="FFFFFFFF"/>
@@ -731,7 +748,7 @@
       </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -741,129 +758,80 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -922,13 +890,21 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H179" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H179" totalsRowShown="0">
   <autoFilter ref="B2:H179"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Sr. No. "/>
@@ -937,35 +913,316 @@
     <tableColumn id="4" name="Description"/>
     <tableColumn id="5" name="Source"/>
     <tableColumn id="6" name="Status"/>
-    <tableColumn id="7" name="Column1"/>
+    <tableColumn id="7" name="Column1" dataDxfId="0"/>
   </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:H179"/>
+  <dimension ref="A2:AMK179"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D89" activeCellId="0" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="1.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="91.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="1" width="9.14"/>
+    <col min="1" max="1" width="1.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="91.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15" style="1" customWidth="1"/>
+    <col min="8" max="1025" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:8">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -988,8 +1245,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="1" t="n">
+    <row r="3" spans="2:8">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -1007,9 +1264,10 @@
       <c r="G3" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="1" t="n">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="1">
         <v>2</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -1027,9 +1285,10 @@
       <c r="G4" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B5" s="1" t="n">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -1047,9 +1306,10 @@
       <c r="G5" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B6" s="1" t="n">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="1">
         <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -1067,9 +1327,10 @@
       <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B7" s="1" t="n">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="1">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -1087,9 +1348,10 @@
       <c r="G7" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B8" s="1" t="n">
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="1">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -1107,9 +1369,10 @@
       <c r="G8" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="1" t="n">
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="1">
         <v>7</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -1127,9 +1390,10 @@
       <c r="G9" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="1" t="n">
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -1147,9 +1411,10 @@
       <c r="G10" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="1" t="n">
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="1">
         <v>9</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -1167,9 +1432,10 @@
       <c r="G11" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="1" t="n">
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -1187,9 +1453,10 @@
       <c r="G12" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="1" t="n">
+      <c r="H12" s="3"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="1">
         <v>11</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -1207,9 +1474,10 @@
       <c r="G13" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="1" t="n">
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="1">
         <v>12</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -1227,9 +1495,10 @@
       <c r="G14" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="1" t="n">
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="1">
         <v>13</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -1247,9 +1516,10 @@
       <c r="G15" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="1" t="n">
+      <c r="H15" s="3"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="1">
         <v>14</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -1267,9 +1537,10 @@
       <c r="G16" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="1" t="n">
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="1">
         <v>15</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -1287,9 +1558,10 @@
       <c r="G17" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="1" t="n">
+      <c r="H17" s="3"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="1">
         <v>16</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -1307,9 +1579,10 @@
       <c r="G18" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="1" t="n">
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="1">
         <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -1327,9 +1600,10 @@
       <c r="G19" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B20" s="1" t="n">
+      <c r="H19" s="3"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="1">
         <v>18</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -1347,9 +1621,10 @@
       <c r="G20" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B21" s="1" t="n">
+      <c r="H20" s="3"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="1">
         <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -1367,9 +1642,10 @@
       <c r="G21" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B22" s="1" t="n">
+      <c r="H21" s="3"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="1">
         <v>20</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -1387,9 +1663,10 @@
       <c r="G22" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B23" s="1" t="n">
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="1">
         <v>21</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -1407,9 +1684,10 @@
       <c r="G23" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="1" t="n">
+      <c r="H23" s="3"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="1">
         <v>22</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -1427,9 +1705,10 @@
       <c r="G24" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="1" t="n">
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="1">
         <v>23</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -1447,9 +1726,10 @@
       <c r="G25" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="1" t="n">
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="1">
         <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -1467,9 +1747,10 @@
       <c r="G26" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="1" t="n">
+      <c r="H26" s="3"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="1">
         <v>25</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -1487,9 +1768,10 @@
       <c r="G27" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B28" s="1" t="n">
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="1">
         <v>26</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1507,9 +1789,10 @@
       <c r="G28" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B29" s="1" t="n">
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:8">
+      <c r="B29" s="1">
         <v>27</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -1527,9 +1810,10 @@
       <c r="G29" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B30" s="1" t="n">
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="2:8">
+      <c r="B30" s="1">
         <v>28</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -1547,9 +1831,10 @@
       <c r="G30" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="1" t="n">
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1">
         <v>29</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -1567,9 +1852,10 @@
       <c r="G31" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="1" t="n">
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="1">
         <v>30</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -1587,9 +1873,10 @@
       <c r="G32" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B33" s="1" t="n">
+      <c r="H32" s="3"/>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="1">
         <v>31</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -1607,9 +1894,10 @@
       <c r="G33" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="1" t="n">
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="1">
         <v>32</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -1627,9 +1915,10 @@
       <c r="G34" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B35" s="1" t="n">
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="1">
         <v>33</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -1647,9 +1936,10 @@
       <c r="G35" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B36" s="1" t="n">
+      <c r="H35" s="3"/>
+    </row>
+    <row r="36" spans="2:8">
+      <c r="B36" s="1">
         <v>34</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -1667,9 +1957,10 @@
       <c r="G36" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B37" s="1" t="n">
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="1">
         <v>35</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -1687,9 +1978,10 @@
       <c r="G37" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="1" t="n">
+      <c r="H37" s="3"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="1">
         <v>36</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -1707,9 +1999,10 @@
       <c r="G38" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="1" t="n">
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="1">
         <v>37</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -1727,9 +2020,10 @@
       <c r="G39" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="1" t="n">
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="1">
         <v>38</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -1747,9 +2041,10 @@
       <c r="G40" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B41" s="1" t="n">
+      <c r="H40" s="3"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="1">
         <v>39</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -1767,9 +2062,10 @@
       <c r="G41" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="1" t="n">
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1">
         <v>40</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -1787,9 +2083,10 @@
       <c r="G42" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="1" t="n">
+      <c r="H42" s="3"/>
+    </row>
+    <row r="43" spans="2:8">
+      <c r="B43" s="1">
         <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -1807,9 +2104,10 @@
       <c r="G43" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="1" t="n">
+      <c r="H43" s="3"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="1">
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -1827,9 +2125,10 @@
       <c r="G44" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="1" t="n">
+      <c r="H44" s="3"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="1">
         <v>43</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -1847,9 +2146,10 @@
       <c r="G45" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B46" s="1" t="n">
+      <c r="H45" s="3"/>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="1">
         <v>44</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -1867,9 +2167,10 @@
       <c r="G46" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B47" s="1" t="n">
+      <c r="H46" s="3"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="1">
         <v>45</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -1887,9 +2188,10 @@
       <c r="G47" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="1" t="n">
+      <c r="H47" s="3"/>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="1">
         <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -1907,9 +2209,10 @@
       <c r="G48" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="1" t="n">
+      <c r="H48" s="3"/>
+    </row>
+    <row r="49" spans="2:8">
+      <c r="B49" s="1">
         <v>47</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -1927,9 +2230,10 @@
       <c r="G49" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B50" s="1" t="n">
+      <c r="H49" s="3"/>
+    </row>
+    <row r="50" spans="2:8">
+      <c r="B50" s="1">
         <v>48</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -1947,9 +2251,10 @@
       <c r="G50" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="1" t="n">
+      <c r="H50" s="3"/>
+    </row>
+    <row r="51" spans="2:8">
+      <c r="B51" s="1">
         <v>49</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -1967,9 +2272,10 @@
       <c r="G51" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="1" t="n">
+      <c r="H51" s="3"/>
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="1">
         <v>50</v>
       </c>
       <c r="C52" s="6" t="s">
@@ -1987,9 +2293,10 @@
       <c r="G52" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="1" t="n">
+      <c r="H52" s="3"/>
+    </row>
+    <row r="53" spans="2:8">
+      <c r="B53" s="1">
         <v>51</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -2007,9 +2314,10 @@
       <c r="G53" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="1" t="n">
+      <c r="H53" s="3"/>
+    </row>
+    <row r="54" spans="2:8">
+      <c r="B54" s="1">
         <v>52</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -2027,9 +2335,10 @@
       <c r="G54" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B55" s="1" t="n">
+      <c r="H54" s="3"/>
+    </row>
+    <row r="55" spans="2:8">
+      <c r="B55" s="1">
         <v>53</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -2047,9 +2356,10 @@
       <c r="G55" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="1" t="n">
+      <c r="H55" s="3"/>
+    </row>
+    <row r="56" spans="2:8">
+      <c r="B56" s="1">
         <v>54</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -2067,9 +2377,10 @@
       <c r="G56" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B57" s="1" t="n">
+      <c r="H56" s="3"/>
+    </row>
+    <row r="57" spans="2:8">
+      <c r="B57" s="1">
         <v>55</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -2087,9 +2398,10 @@
       <c r="G57" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="1" t="n">
+      <c r="H57" s="3"/>
+    </row>
+    <row r="58" spans="2:8">
+      <c r="B58" s="1">
         <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -2107,9 +2419,10 @@
       <c r="G58" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="1" t="n">
+      <c r="H58" s="3"/>
+    </row>
+    <row r="59" spans="2:8">
+      <c r="B59" s="1">
         <v>57</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -2127,9 +2440,10 @@
       <c r="G59" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B60" s="1" t="n">
+      <c r="H59" s="3"/>
+    </row>
+    <row r="60" spans="2:8">
+      <c r="B60" s="1">
         <v>58</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -2147,9 +2461,10 @@
       <c r="G60" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="1" t="n">
+      <c r="H60" s="3"/>
+    </row>
+    <row r="61" spans="2:8">
+      <c r="B61" s="1">
         <v>59</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -2167,9 +2482,10 @@
       <c r="G61" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="1" t="n">
+      <c r="H61" s="3"/>
+    </row>
+    <row r="62" spans="2:8">
+      <c r="B62" s="1">
         <v>60</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -2187,9 +2503,10 @@
       <c r="G62" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="1" t="n">
+      <c r="H62" s="3"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="1">
         <v>61</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -2207,9 +2524,10 @@
       <c r="G63" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="1" t="n">
+      <c r="H63" s="3"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="1">
         <v>62</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -2227,9 +2545,10 @@
       <c r="G64" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B65" s="1" t="n">
+      <c r="H64" s="3"/>
+    </row>
+    <row r="65" spans="2:8">
+      <c r="B65" s="1">
         <v>63</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -2247,9 +2566,10 @@
       <c r="G65" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="1" t="n">
+      <c r="H65" s="3"/>
+    </row>
+    <row r="66" spans="2:8">
+      <c r="B66" s="1">
         <v>64</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -2267,9 +2587,10 @@
       <c r="G66" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B67" s="1" t="n">
+      <c r="H66" s="3"/>
+    </row>
+    <row r="67" spans="2:8">
+      <c r="B67" s="1">
         <v>65</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -2287,9 +2608,10 @@
       <c r="G67" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B68" s="1" t="n">
+      <c r="H67" s="3"/>
+    </row>
+    <row r="68" spans="2:8">
+      <c r="B68" s="1">
         <v>66</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -2307,9 +2629,10 @@
       <c r="G68" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="1" t="n">
+      <c r="H68" s="3"/>
+    </row>
+    <row r="69" spans="2:8">
+      <c r="B69" s="1">
         <v>67</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -2327,9 +2650,10 @@
       <c r="G69" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="70" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B70" s="1" t="n">
+      <c r="H69" s="3"/>
+    </row>
+    <row r="70" spans="2:8">
+      <c r="B70" s="1">
         <v>68</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -2347,9 +2671,10 @@
       <c r="G70" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="71" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B71" s="1" t="n">
+      <c r="H70" s="3"/>
+    </row>
+    <row r="71" spans="2:8">
+      <c r="B71" s="1">
         <v>69</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -2367,9 +2692,10 @@
       <c r="G71" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="72" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B72" s="1" t="n">
+      <c r="H71" s="3"/>
+    </row>
+    <row r="72" spans="2:8">
+      <c r="B72" s="1">
         <v>70</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -2387,9 +2713,10 @@
       <c r="G72" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B73" s="1" t="n">
+      <c r="H72" s="3"/>
+    </row>
+    <row r="73" spans="2:8">
+      <c r="B73" s="1">
         <v>71</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -2407,9 +2734,10 @@
       <c r="G73" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B74" s="1" t="n">
+      <c r="H73" s="3"/>
+    </row>
+    <row r="74" spans="2:8">
+      <c r="B74" s="1">
         <v>72</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -2427,9 +2755,10 @@
       <c r="G74" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B75" s="1" t="n">
+      <c r="H74" s="3"/>
+    </row>
+    <row r="75" spans="2:8">
+      <c r="B75" s="1">
         <v>73</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -2447,9 +2776,10 @@
       <c r="G75" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="76" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B76" s="1" t="n">
+      <c r="H75" s="3"/>
+    </row>
+    <row r="76" spans="2:8">
+      <c r="B76" s="1">
         <v>74</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -2467,9 +2797,10 @@
       <c r="G76" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="77" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B77" s="1" t="n">
+      <c r="H76" s="3"/>
+    </row>
+    <row r="77" spans="2:8">
+      <c r="B77" s="1">
         <v>75</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -2487,12 +2818,12 @@
       <c r="G77" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H77" s="1" t="s">
+      <c r="H77" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B78" s="1" t="n">
+    <row r="78" spans="2:8">
+      <c r="B78" s="1">
         <v>76</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -2510,12 +2841,12 @@
       <c r="G78" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H78" s="1" t="s">
+      <c r="H78" s="3" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B79" s="1" t="n">
+    <row r="79" spans="2:8">
+      <c r="B79" s="1">
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -2533,9 +2864,10 @@
       <c r="G79" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="80" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B80" s="1" t="n">
+      <c r="H79" s="3"/>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="1">
         <v>78</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -2553,12 +2885,12 @@
       <c r="G80" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H80" s="1" t="s">
+      <c r="H80" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B81" s="1" t="n">
+    <row r="81" spans="2:8">
+      <c r="B81" s="1">
         <v>79</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -2576,9 +2908,10 @@
       <c r="G81" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B82" s="1" t="n">
+      <c r="H81" s="3"/>
+    </row>
+    <row r="82" spans="2:8" ht="31.5">
+      <c r="B82" s="1">
         <v>80</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -2596,12 +2929,12 @@
       <c r="G82" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H82" s="1" t="s">
+      <c r="H82" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B83" s="1" t="n">
+    <row r="83" spans="2:8">
+      <c r="B83" s="1">
         <v>81</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -2619,9 +2952,10 @@
       <c r="G83" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="84" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B84" s="1" t="n">
+      <c r="H83" s="3"/>
+    </row>
+    <row r="84" spans="2:8">
+      <c r="B84" s="1">
         <v>82</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -2639,9 +2973,10 @@
       <c r="G84" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B85" s="1" t="n">
+      <c r="H84" s="3"/>
+    </row>
+    <row r="85" spans="2:8">
+      <c r="B85" s="1">
         <v>83</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -2659,9 +2994,10 @@
       <c r="G85" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B86" s="1" t="n">
+      <c r="H85" s="3"/>
+    </row>
+    <row r="86" spans="2:8">
+      <c r="B86" s="1">
         <v>84</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -2679,9 +3015,10 @@
       <c r="G86" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="87" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B87" s="1" t="n">
+      <c r="H86" s="3"/>
+    </row>
+    <row r="87" spans="2:8">
+      <c r="B87" s="1">
         <v>85</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -2699,9 +3036,10 @@
       <c r="G87" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="88" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B88" s="1" t="n">
+      <c r="H87" s="3"/>
+    </row>
+    <row r="88" spans="2:8">
+      <c r="B88" s="1">
         <v>86</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -2719,9 +3057,10 @@
       <c r="G88" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="89" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B89" s="1" t="n">
+      <c r="H88" s="3"/>
+    </row>
+    <row r="89" spans="2:8">
+      <c r="B89" s="1">
         <v>87</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -2739,495 +3078,657 @@
       <c r="G89" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B90" s="1" t="n">
+      <c r="H89" s="3"/>
+    </row>
+    <row r="90" spans="2:8">
+      <c r="B90" s="1">
         <v>88</v>
       </c>
-    </row>
-    <row r="91" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B91" s="1" t="n">
+      <c r="C90" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F90" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H90" s="3"/>
+    </row>
+    <row r="91" spans="2:8">
+      <c r="B91" s="1">
         <v>89</v>
       </c>
-    </row>
-    <row r="92" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B92" s="1" t="n">
+      <c r="C91" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H91" s="3"/>
+    </row>
+    <row r="92" spans="2:8" ht="31.5">
+      <c r="B92" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="93" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B93" s="1" t="n">
+      <c r="C92" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" ht="31.5">
+      <c r="B93" s="1">
         <v>91</v>
       </c>
-    </row>
-    <row r="94" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B94" s="1" t="n">
+      <c r="C93" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H93" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
+      <c r="B94" s="1">
         <v>92</v>
       </c>
-    </row>
-    <row r="95" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B95" s="1" t="n">
+      <c r="C94" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H94" s="3"/>
+    </row>
+    <row r="95" spans="2:8">
+      <c r="B95" s="1">
         <v>93</v>
       </c>
-    </row>
-    <row r="96" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B96" s="1" t="n">
+      <c r="H95" s="3"/>
+    </row>
+    <row r="96" spans="2:8">
+      <c r="B96" s="1">
         <v>94</v>
       </c>
-    </row>
-    <row r="97" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B97" s="1" t="n">
+      <c r="H96" s="3"/>
+    </row>
+    <row r="97" spans="2:8">
+      <c r="B97" s="1">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B98" s="1" t="n">
+      <c r="H97" s="3"/>
+    </row>
+    <row r="98" spans="2:8">
+      <c r="B98" s="1">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B99" s="1" t="n">
+      <c r="H98" s="3"/>
+    </row>
+    <row r="99" spans="2:8">
+      <c r="B99" s="1">
         <v>97</v>
       </c>
-    </row>
-    <row r="100" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B100" s="1" t="n">
+      <c r="H99" s="3"/>
+    </row>
+    <row r="100" spans="2:8">
+      <c r="B100" s="1">
         <v>98</v>
       </c>
-    </row>
-    <row r="101" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B101" s="1" t="n">
+      <c r="H100" s="3"/>
+    </row>
+    <row r="101" spans="2:8">
+      <c r="B101" s="1">
         <v>99</v>
       </c>
-    </row>
-    <row r="102" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B102" s="1" t="n">
+      <c r="H101" s="3"/>
+    </row>
+    <row r="102" spans="2:8">
+      <c r="B102" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="103" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B103" s="1" t="n">
+      <c r="H102" s="3"/>
+    </row>
+    <row r="103" spans="2:8">
+      <c r="B103" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="104" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B104" s="1" t="n">
+      <c r="H103" s="3"/>
+    </row>
+    <row r="104" spans="2:8">
+      <c r="B104" s="1">
         <v>102</v>
       </c>
-    </row>
-    <row r="105" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B105" s="1" t="n">
+      <c r="H104" s="3"/>
+    </row>
+    <row r="105" spans="2:8">
+      <c r="B105" s="1">
         <v>103</v>
       </c>
-    </row>
-    <row r="106" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B106" s="1" t="n">
+      <c r="H105" s="3"/>
+    </row>
+    <row r="106" spans="2:8">
+      <c r="B106" s="1">
         <v>104</v>
       </c>
-    </row>
-    <row r="107" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B107" s="1" t="n">
+      <c r="H106" s="3"/>
+    </row>
+    <row r="107" spans="2:8">
+      <c r="B107" s="1">
         <v>105</v>
       </c>
-    </row>
-    <row r="108" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B108" s="1" t="n">
+      <c r="H107" s="3"/>
+    </row>
+    <row r="108" spans="2:8">
+      <c r="B108" s="1">
         <v>106</v>
       </c>
-    </row>
-    <row r="109" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B109" s="1" t="n">
+      <c r="H108" s="3"/>
+    </row>
+    <row r="109" spans="2:8">
+      <c r="B109" s="1">
         <v>107</v>
       </c>
-    </row>
-    <row r="110" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B110" s="1" t="n">
+      <c r="H109" s="3"/>
+    </row>
+    <row r="110" spans="2:8">
+      <c r="B110" s="1">
         <v>108</v>
       </c>
-    </row>
-    <row r="111" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B111" s="1" t="n">
+      <c r="H110" s="3"/>
+    </row>
+    <row r="111" spans="2:8">
+      <c r="B111" s="1">
         <v>109</v>
       </c>
-    </row>
-    <row r="112" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B112" s="1" t="n">
+      <c r="H111" s="3"/>
+    </row>
+    <row r="112" spans="2:8">
+      <c r="B112" s="1">
         <v>110</v>
       </c>
-    </row>
-    <row r="113" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B113" s="1" t="n">
+      <c r="H112" s="3"/>
+    </row>
+    <row r="113" spans="2:8">
+      <c r="B113" s="1">
         <v>111</v>
       </c>
-    </row>
-    <row r="114" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B114" s="1" t="n">
+      <c r="H113" s="3"/>
+    </row>
+    <row r="114" spans="2:8">
+      <c r="B114" s="1">
         <v>112</v>
       </c>
-    </row>
-    <row r="115" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B115" s="1" t="n">
+      <c r="H114" s="3"/>
+    </row>
+    <row r="115" spans="2:8">
+      <c r="B115" s="1">
         <v>113</v>
       </c>
-    </row>
-    <row r="116" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B116" s="1" t="n">
+      <c r="H115" s="3"/>
+    </row>
+    <row r="116" spans="2:8">
+      <c r="B116" s="1">
         <v>114</v>
       </c>
-    </row>
-    <row r="117" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B117" s="1" t="n">
+      <c r="H116" s="3"/>
+    </row>
+    <row r="117" spans="2:8">
+      <c r="B117" s="1">
         <v>115</v>
       </c>
-    </row>
-    <row r="118" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B118" s="1" t="n">
+      <c r="H117" s="3"/>
+    </row>
+    <row r="118" spans="2:8">
+      <c r="B118" s="1">
         <v>116</v>
       </c>
-    </row>
-    <row r="119" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B119" s="1" t="n">
+      <c r="H118" s="3"/>
+    </row>
+    <row r="119" spans="2:8">
+      <c r="B119" s="1">
         <v>117</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B120" s="1" t="n">
+      <c r="H119" s="3"/>
+    </row>
+    <row r="120" spans="2:8">
+      <c r="B120" s="1">
         <v>118</v>
       </c>
-    </row>
-    <row r="121" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B121" s="1" t="n">
+      <c r="H120" s="3"/>
+    </row>
+    <row r="121" spans="2:8">
+      <c r="B121" s="1">
         <v>119</v>
       </c>
-    </row>
-    <row r="122" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B122" s="1" t="n">
+      <c r="H121" s="3"/>
+    </row>
+    <row r="122" spans="2:8">
+      <c r="B122" s="1">
         <v>120</v>
       </c>
-    </row>
-    <row r="123" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B123" s="1" t="n">
+      <c r="H122" s="3"/>
+    </row>
+    <row r="123" spans="2:8">
+      <c r="B123" s="1">
         <v>121</v>
       </c>
-    </row>
-    <row r="124" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B124" s="1" t="n">
+      <c r="H123" s="3"/>
+    </row>
+    <row r="124" spans="2:8">
+      <c r="B124" s="1">
         <v>122</v>
       </c>
-    </row>
-    <row r="125" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B125" s="1" t="n">
+      <c r="H124" s="3"/>
+    </row>
+    <row r="125" spans="2:8">
+      <c r="B125" s="1">
         <v>123</v>
       </c>
-    </row>
-    <row r="126" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B126" s="1" t="n">
+      <c r="H125" s="3"/>
+    </row>
+    <row r="126" spans="2:8">
+      <c r="B126" s="1">
         <v>124</v>
       </c>
-    </row>
-    <row r="127" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B127" s="1" t="n">
+      <c r="H126" s="3"/>
+    </row>
+    <row r="127" spans="2:8">
+      <c r="B127" s="1">
         <v>125</v>
       </c>
-    </row>
-    <row r="128" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B128" s="1" t="n">
+      <c r="H127" s="3"/>
+    </row>
+    <row r="128" spans="2:8">
+      <c r="B128" s="1">
         <v>126</v>
       </c>
-    </row>
-    <row r="129" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B129" s="1" t="n">
+      <c r="H128" s="3"/>
+    </row>
+    <row r="129" spans="2:8">
+      <c r="B129" s="1">
         <v>127</v>
       </c>
-    </row>
-    <row r="130" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B130" s="1" t="n">
+      <c r="H129" s="3"/>
+    </row>
+    <row r="130" spans="2:8">
+      <c r="B130" s="1">
         <v>128</v>
       </c>
-    </row>
-    <row r="131" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B131" s="1" t="n">
+      <c r="H130" s="3"/>
+    </row>
+    <row r="131" spans="2:8">
+      <c r="B131" s="1">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B132" s="1" t="n">
+      <c r="H131" s="3"/>
+    </row>
+    <row r="132" spans="2:8">
+      <c r="B132" s="1">
         <v>130</v>
       </c>
-    </row>
-    <row r="133" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B133" s="1" t="n">
+      <c r="H132" s="3"/>
+    </row>
+    <row r="133" spans="2:8">
+      <c r="B133" s="1">
         <v>131</v>
       </c>
-    </row>
-    <row r="134" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B134" s="1" t="n">
+      <c r="H133" s="3"/>
+    </row>
+    <row r="134" spans="2:8">
+      <c r="B134" s="1">
         <v>132</v>
       </c>
-    </row>
-    <row r="135" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B135" s="1" t="n">
+      <c r="H134" s="3"/>
+    </row>
+    <row r="135" spans="2:8">
+      <c r="B135" s="1">
         <v>133</v>
       </c>
-    </row>
-    <row r="136" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B136" s="1" t="n">
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="2:8">
+      <c r="B136" s="1">
         <v>134</v>
       </c>
-    </row>
-    <row r="137" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B137" s="1" t="n">
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="2:8">
+      <c r="B137" s="1">
         <v>135</v>
       </c>
-    </row>
-    <row r="138" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B138" s="1" t="n">
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="2:8">
+      <c r="B138" s="1">
         <v>136</v>
       </c>
-    </row>
-    <row r="139" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B139" s="1" t="n">
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="2:8">
+      <c r="B139" s="1">
         <v>137</v>
       </c>
-    </row>
-    <row r="140" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B140" s="1" t="n">
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="2:8">
+      <c r="B140" s="1">
         <v>138</v>
       </c>
-    </row>
-    <row r="141" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B141" s="1" t="n">
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="2:8">
+      <c r="B141" s="1">
         <v>139</v>
       </c>
-    </row>
-    <row r="142" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B142" s="1" t="n">
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="2:8">
+      <c r="B142" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B143" s="1" t="n">
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="2:8">
+      <c r="B143" s="1">
         <v>141</v>
       </c>
-    </row>
-    <row r="144" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B144" s="1" t="n">
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="2:8">
+      <c r="B144" s="1">
         <v>142</v>
       </c>
-    </row>
-    <row r="145" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B145" s="1" t="n">
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="2:8">
+      <c r="B145" s="1">
         <v>143</v>
       </c>
-    </row>
-    <row r="146" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B146" s="1" t="n">
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="2:8">
+      <c r="B146" s="1">
         <v>144</v>
       </c>
-    </row>
-    <row r="147" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B147" s="1" t="n">
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="2:8">
+      <c r="B147" s="1">
         <v>145</v>
       </c>
-    </row>
-    <row r="148" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B148" s="1" t="n">
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="2:8">
+      <c r="B148" s="1">
         <v>146</v>
       </c>
-    </row>
-    <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B149" s="1" t="n">
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="2:8">
+      <c r="B149" s="1">
         <v>147</v>
       </c>
-    </row>
-    <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B150" s="1" t="n">
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="2:8">
+      <c r="B150" s="1">
         <v>148</v>
       </c>
-    </row>
-    <row r="151" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B151" s="1" t="n">
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="2:8">
+      <c r="B151" s="1">
         <v>149</v>
       </c>
-    </row>
-    <row r="152" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B152" s="1" t="n">
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="2:8">
+      <c r="B152" s="1">
         <v>150</v>
       </c>
-    </row>
-    <row r="153" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B153" s="1" t="n">
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="2:8">
+      <c r="B153" s="1">
         <v>151</v>
       </c>
-    </row>
-    <row r="154" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B154" s="1" t="n">
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="2:8">
+      <c r="B154" s="1">
         <v>152</v>
       </c>
-    </row>
-    <row r="155" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B155" s="1" t="n">
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="2:8">
+      <c r="B155" s="1">
         <v>153</v>
       </c>
-    </row>
-    <row r="156" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B156" s="1" t="n">
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="2:8">
+      <c r="B156" s="1">
         <v>154</v>
       </c>
-    </row>
-    <row r="157" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B157" s="1" t="n">
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="2:8">
+      <c r="B157" s="1">
         <v>155</v>
       </c>
-    </row>
-    <row r="158" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B158" s="1" t="n">
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="2:8">
+      <c r="B158" s="1">
         <v>156</v>
       </c>
-    </row>
-    <row r="159" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B159" s="1" t="n">
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="2:8">
+      <c r="B159" s="1">
         <v>157</v>
       </c>
-    </row>
-    <row r="160" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B160" s="1" t="n">
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="2:8">
+      <c r="B160" s="1">
         <v>158</v>
       </c>
-    </row>
-    <row r="161" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B161" s="1" t="n">
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="2:8">
+      <c r="B161" s="1">
         <v>159</v>
       </c>
-    </row>
-    <row r="162" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B162" s="1" t="n">
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="2:8">
+      <c r="B162" s="1">
         <v>160</v>
       </c>
-    </row>
-    <row r="163" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B163" s="1" t="n">
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="2:8">
+      <c r="B163" s="1">
         <v>161</v>
       </c>
-    </row>
-    <row r="164" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B164" s="1" t="n">
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="2:8">
+      <c r="B164" s="1">
         <v>162</v>
       </c>
-    </row>
-    <row r="165" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B165" s="1" t="n">
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="2:8">
+      <c r="B165" s="1">
         <v>163</v>
       </c>
-    </row>
-    <row r="166" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B166" s="1" t="n">
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="2:8">
+      <c r="B166" s="1">
         <v>164</v>
       </c>
-    </row>
-    <row r="167" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B167" s="1" t="n">
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="2:8">
+      <c r="B167" s="1">
         <v>165</v>
       </c>
-    </row>
-    <row r="168" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B168" s="1" t="n">
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="2:8">
+      <c r="B168" s="1">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B169" s="1" t="n">
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="2:8">
+      <c r="B169" s="1">
         <v>167</v>
       </c>
-    </row>
-    <row r="170" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B170" s="1" t="n">
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="2:8">
+      <c r="B170" s="1">
         <v>168</v>
       </c>
-    </row>
-    <row r="171" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B171" s="1" t="n">
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="2:8">
+      <c r="B171" s="1">
         <v>169</v>
       </c>
-    </row>
-    <row r="172" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B172" s="1" t="n">
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="2:8">
+      <c r="B172" s="1">
         <v>170</v>
       </c>
-    </row>
-    <row r="173" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B173" s="1" t="n">
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="2:8">
+      <c r="B173" s="1">
         <v>171</v>
       </c>
-    </row>
-    <row r="174" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B174" s="1" t="n">
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="2:8">
+      <c r="B174" s="1">
         <v>172</v>
       </c>
-    </row>
-    <row r="175" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B175" s="1" t="n">
+      <c r="H174" s="3"/>
+    </row>
+    <row r="175" spans="2:8">
+      <c r="B175" s="1">
         <v>173</v>
       </c>
-    </row>
-    <row r="176" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B176" s="1" t="n">
+      <c r="H175" s="3"/>
+    </row>
+    <row r="176" spans="2:8">
+      <c r="B176" s="1">
         <v>174</v>
       </c>
-    </row>
-    <row r="177" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B177" s="1" t="n">
+      <c r="H176" s="3"/>
+    </row>
+    <row r="177" spans="2:8">
+      <c r="B177" s="1">
         <v>175</v>
       </c>
-    </row>
-    <row r="178" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B178" s="1" t="n">
+      <c r="H177" s="3"/>
+    </row>
+    <row r="178" spans="2:8">
+      <c r="B178" s="1">
         <v>176</v>
       </c>
-    </row>
-    <row r="179" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B179" s="1" t="n">
+      <c r="H178" s="3"/>
+    </row>
+    <row r="179" spans="2:8">
+      <c r="B179" s="1">
         <v>177</v>
       </c>
+      <c r="H179" s="3"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <tableParts>
-    <tablePart r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B2:G6"/>
+  <dimension ref="A2:AMK6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="8" width="8.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="8" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="8" width="31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="8" width="14.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="8" width="85.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="9" width="14.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="8" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="8" style="8" width="8.57"/>
+    <col min="1" max="1" width="8.5703125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="31" style="8" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="9" customWidth="1"/>
+    <col min="7" max="7" width="15" style="8" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="2:7" ht="15.75">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -3247,8 +3748,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="14" t="n">
+    <row r="3" spans="2:7" ht="15.75">
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="14" t="s">
@@ -3267,8 +3768,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="18" t="n">
+    <row r="4" spans="2:7" ht="15.75">
+      <c r="B4" s="18">
         <v>2</v>
       </c>
       <c r="C4" s="18" t="s">
@@ -3285,7 +3786,7 @@
       </c>
       <c r="G4" s="21"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:7" ht="15.75">
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -3293,7 +3794,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:7" ht="15.75">
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="18"/>
@@ -3302,38 +3803,23 @@
       <c r="G6" s="21"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:AMK1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="8" width="8.57"/>
+    <col min="1" max="1025" width="8.5703125" style="8" customWidth="1"/>
   </cols>
   <sheetData/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="245">
   <si>
     <t xml:space="preserve">Sr. No. </t>
   </si>
@@ -641,10 +641,121 @@
     <t>bfsGraphs</t>
   </si>
   <si>
-    <t>BFS algorithm</t>
-  </si>
-  <si>
     <t>no sp no test</t>
+  </si>
+  <si>
+    <t>dfsGraphs</t>
+  </si>
+  <si>
+    <t>DFS Algorithm</t>
+  </si>
+  <si>
+    <t>BFS Algorithm</t>
+  </si>
+  <si>
+    <t>dijkstrasGraphs</t>
+  </si>
+  <si>
+    <t>Dijkstra's Algorithm for single source shortest path with path printing</t>
+  </si>
+  <si>
+    <t>prismGraphs</t>
+  </si>
+  <si>
+    <t>Minimum Spanning Tree using Prism's Algorithm</t>
+  </si>
+  <si>
+    <t>dfsRecursiveGraphs</t>
+  </si>
+  <si>
+    <t>Recursive DFS algorithm with discovery and finishing times</t>
+  </si>
+  <si>
+    <t>isUniqueMSTGraphs</t>
+  </si>
+  <si>
+    <t>Is the mimimum spanning tree of a given undirected graph unique?</t>
+  </si>
+  <si>
+    <t>n chairs are arranged around a circular table. ai is the number on the ith chair. Person sitting on ith chair can jump ai number of chairs towards left or right. Given X and Y, we find the minimum number of jumps required go from chair X to chair Y, print -1 if impossible</t>
+  </si>
+  <si>
+    <t>minJumpChairsGraphs</t>
+  </si>
+  <si>
+    <t>Think about DSs</t>
+  </si>
+  <si>
+    <t>Given directed graph with weights on each node. Find pair of nodes, say i, j such that j is reachable from i and w(j) − w(i) is maximum.</t>
+  </si>
+  <si>
+    <t>maxDiffVertWGraphs</t>
+  </si>
+  <si>
+    <t>bstTrees</t>
+  </si>
+  <si>
+    <t>Implementing binary search trees in Java</t>
+  </si>
+  <si>
+    <t>treeRepresentation</t>
+  </si>
+  <si>
+    <t>Tree structure in Java</t>
+  </si>
+  <si>
+    <t>Two stores, A and B . On each day can be either at A or B. Moving to other store the next day will cost C. Given profits P A(i) and P B(i), at store A or B on day i. Give a schedule, where we should be on each day so that the overall money earned (profit minus the cost of moving) is max.</t>
+  </si>
+  <si>
+    <t>optiSchedule</t>
+  </si>
+  <si>
+    <t>Given binary string of length n. Flip(l, u) flips all the bits between l and u, we are allowed to call this function ONLY once. We design a linear (time and space) algorithm to find the values of l and u, such that after one call to the function, the binary string will have maximum number of 1’s</t>
+  </si>
+  <si>
+    <t>flipLUMaxOnes</t>
+  </si>
+  <si>
+    <t>Cell Phone keypad has 11 buttons corresponding to digits from 0 to 9 and one additional button called Add. Add button replaces the last two digits appearing on the screen with their sum taken mod 10. Each button has a non-negative cost of pressing. The cost of pressing Add button is 0. Given the target phone no, design an algorithm to find the minimum cost of feeding that number.</t>
+  </si>
+  <si>
+    <t>phoneNoMinCost</t>
+  </si>
+  <si>
+    <t>FW Left</t>
+  </si>
+  <si>
+    <t>companyMoneyT</t>
+  </si>
+  <si>
+    <t>Convert a string into a palindrome with min cost of operations. Operations allowed are (a) Add any character at any position (b) Remove any character from any position (c) Replace any character at any position with another character. Every operation we do counts for a different cost, say i, d, r respectively. We want to keep cost as low as possible!</t>
+  </si>
+  <si>
+    <t>convertTPalinMinCost</t>
+  </si>
+  <si>
+    <t>n companies, which owe each other certain amts of money (say imbalance). Given a1, a2, . . . an which are the imbalance of the n companies, such that SUM(ai) = 0. We find the min amount x, such that all imbalances can be satisfied by transactions involving ≤ x amount of money.</t>
+  </si>
+  <si>
+    <t>Apply binary and clean up the code</t>
+  </si>
+  <si>
+    <t>Backtracking left!</t>
+  </si>
+  <si>
+    <t>There are n movers and m packages. The packages come in a single line. A mover can only pick the first few packages in the line. He should choose at least one. All the packages are to be taken. The movers need to carry of all the packages. Minimize the maximum load that any mover gets.</t>
+  </si>
+  <si>
+    <t>movPackMinMaxLoad</t>
+  </si>
+  <si>
+    <t>Given a tree rooted at node 1. Every node has a weight associated with the node. An efficient algorithm to count the total number of beautiful pair of nodes.</t>
+  </si>
+  <si>
+    <t>beautifulNodes</t>
+  </si>
+  <si>
+    <t>Do AVL tree also</t>
   </si>
 </sst>
 </file>
@@ -761,7 +872,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -781,7 +892,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -822,13 +932,25 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -904,13 +1026,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H179" totalsRowShown="0">
-  <autoFilter ref="B2:H179"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B2:H178" totalsRowShown="0">
+  <autoFilter ref="B2:H178"/>
   <tableColumns count="7">
     <tableColumn id="1" name="Sr. No. "/>
     <tableColumn id="2" name="File Name"/>
     <tableColumn id="3" name="Language"/>
-    <tableColumn id="4" name="Description"/>
+    <tableColumn id="4" name="Description" dataDxfId="1"/>
     <tableColumn id="5" name="Source"/>
     <tableColumn id="6" name="Status"/>
     <tableColumn id="7" name="Column1" dataDxfId="0"/>
@@ -1204,10 +1326,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:AMK179"/>
+  <dimension ref="A2:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B85" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1218,8 +1340,9 @@
     <col min="4" max="4" width="14.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="91.85546875" style="2" customWidth="1"/>
     <col min="6" max="6" width="14.140625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="15" style="1" customWidth="1"/>
-    <col min="8" max="1025" width="9.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="1" customWidth="1"/>
+    <col min="9" max="1025" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8">
@@ -2284,7 +2407,7 @@
       <c r="D52" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E52" s="7" t="s">
+      <c r="E52" s="22" t="s">
         <v>112</v>
       </c>
       <c r="F52" s="6" t="s">
@@ -3122,7 +3245,7 @@
       </c>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="2:8" ht="31.5">
+    <row r="92" spans="2:8">
       <c r="B92" s="1">
         <v>90</v>
       </c>
@@ -3165,7 +3288,7 @@
         <v>26</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="2:8">
@@ -3179,13 +3302,13 @@
         <v>191</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F94" s="3" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="H94" s="3"/>
     </row>
@@ -3193,97 +3316,349 @@
       <c r="B95" s="1">
         <v>93</v>
       </c>
+      <c r="C95" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H95" s="3"/>
     </row>
     <row r="96" spans="2:8">
       <c r="B96" s="1">
         <v>94</v>
       </c>
+      <c r="C96" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H96" s="3"/>
     </row>
     <row r="97" spans="2:8">
       <c r="B97" s="1">
         <v>95</v>
       </c>
+      <c r="C97" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="F97" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H97" s="3"/>
     </row>
     <row r="98" spans="2:8">
       <c r="B98" s="1">
         <v>96</v>
       </c>
+      <c r="C98" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="2:8">
+    <row r="99" spans="2:8" ht="47.25">
       <c r="B99" s="1">
         <v>97</v>
       </c>
-      <c r="H99" s="3"/>
-    </row>
-    <row r="100" spans="2:8">
+      <c r="C99" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H99" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" ht="47.25">
       <c r="B100" s="1">
         <v>98</v>
       </c>
+      <c r="C100" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="2:8">
+    <row r="101" spans="2:8" ht="28.5" customHeight="1">
       <c r="B101" s="1">
         <v>99</v>
       </c>
-      <c r="H101" s="3"/>
+      <c r="C101" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E101" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="102" spans="2:8">
       <c r="B102" s="1">
         <v>100</v>
       </c>
+      <c r="C102" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H102" s="3"/>
     </row>
     <row r="103" spans="2:8">
       <c r="B103" s="1">
         <v>101</v>
       </c>
+      <c r="C103" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="2:8">
+    <row r="104" spans="2:8" ht="47.25" customHeight="1">
       <c r="B104" s="1">
         <v>102</v>
       </c>
+      <c r="C104" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="2:8">
+    <row r="105" spans="2:8" ht="49.5" customHeight="1">
       <c r="B105" s="1">
         <v>103</v>
       </c>
+      <c r="C105" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="2:8">
+    <row r="106" spans="2:8" ht="66" customHeight="1">
       <c r="B106" s="1">
         <v>104</v>
       </c>
+      <c r="C106" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="2:8">
+    <row r="107" spans="2:8" ht="78.75">
       <c r="B107" s="1">
         <v>105</v>
       </c>
-      <c r="H107" s="3"/>
-    </row>
-    <row r="108" spans="2:8">
+      <c r="C107" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H107" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" ht="63">
       <c r="B108" s="1">
         <v>106</v>
       </c>
-      <c r="H108" s="3"/>
-    </row>
-    <row r="109" spans="2:8">
+      <c r="C108" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E108" s="22" t="s">
+        <v>235</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H108" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" ht="49.5" customHeight="1">
       <c r="B109" s="1">
         <v>107</v>
       </c>
-      <c r="H109" s="3"/>
-    </row>
-    <row r="110" spans="2:8">
+      <c r="C109" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E109" s="23" t="s">
+        <v>240</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H109" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" ht="31.5">
       <c r="B110" s="1">
         <v>108</v>
       </c>
-      <c r="H110" s="3"/>
+      <c r="C110" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="E110" s="22" t="s">
+        <v>242</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H110" s="3" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="111" spans="2:8">
       <c r="B111" s="1">
@@ -3692,12 +4067,6 @@
         <v>176</v>
       </c>
       <c r="H178" s="3"/>
-    </row>
-    <row r="179" spans="2:8">
-      <c r="B179" s="1">
-        <v>177</v>
-      </c>
-      <c r="H179" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3718,89 +4087,89 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="31" style="8" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="85.28515625" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="9" customWidth="1"/>
-    <col min="7" max="7" width="15" style="8" customWidth="1"/>
-    <col min="8" max="1025" width="8.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="31" style="7" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="85.28515625" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="8" customWidth="1"/>
+    <col min="7" max="7" width="15" style="7" customWidth="1"/>
+    <col min="8" max="1025" width="8.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" ht="15.75">
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="15.75">
-      <c r="B3" s="14">
+      <c r="B3" s="13">
         <v>1</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>191</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="16" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:7" ht="15.75">
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>2</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="F4" s="20" t="s">
+      <c r="F4" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="G4" s="21"/>
+      <c r="G4" s="20"/>
     </row>
     <row r="5" spans="2:7" ht="15.75">
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
     </row>
     <row r="6" spans="2:7" ht="15.75">
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="21"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3816,7 +4185,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1025" width="8.5703125" style="8" customWidth="1"/>
+    <col min="1" max="1025" width="8.5703125" style="7" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B106" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
+      <selection activeCell="E104" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H110" s="3" t="s">
         <v>244</v>

--- a/program_list.xlsx
+++ b/program_list.xlsx
@@ -1328,8 +1328,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AMK178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" workbookViewId="0">
-      <selection activeCell="E104" sqref="E104"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1490,7 +1490,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="H8" s="3"/>
     </row>
